--- a/doc/WEGE3cg_1anos.xlsx
+++ b/doc/WEGE3cg_1anos.xlsx
@@ -173,6 +173,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1694,6 +1697,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/WEGE3cg_1anos.xlsx
+++ b/doc/WEGE3cg_1anos.xlsx
@@ -941,751 +941,751 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>1.785252263906867</c:v>
+                  <c:v>0.01785252263906867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.4829689883070754</c:v>
+                  <c:v>-0.004829689883070754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.3575989782886313</c:v>
+                  <c:v>-0.003575989782886313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.384260446039476</c:v>
+                  <c:v>-0.01384260446039476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.143748375357412</c:v>
+                  <c:v>-0.01143748375357412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.6310807257428386</c:v>
+                  <c:v>-0.006310807257428386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7409367557554836</c:v>
+                  <c:v>0.007409367557554836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7354872603099638</c:v>
+                  <c:v>0.007354872603099638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1303780964797774</c:v>
+                  <c:v>0.001303780964797774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.9895833333333215</c:v>
+                  <c:v>-0.009895833333333215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.446607048921611</c:v>
+                  <c:v>0.01446607048921611</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.929738138449578</c:v>
+                  <c:v>-0.02929738138449578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9081196581196771</c:v>
+                  <c:v>0.009081196581196771</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6881948120698755</c:v>
+                  <c:v>0.006881948120698755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4206098843323014</c:v>
+                  <c:v>0.004206098843323014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.047120418848158</c:v>
+                  <c:v>0.01047120418848158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.554404145077726</c:v>
+                  <c:v>-0.01554404145077726</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.5526315789473712</c:v>
+                  <c:v>-0.005526315789473712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2910822969039328</c:v>
+                  <c:v>0.002910822969039328</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.5540897097625397</c:v>
+                  <c:v>-0.005540897097625397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7429026266914329</c:v>
+                  <c:v>0.007429026266914329</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.4740584672109582</c:v>
+                  <c:v>-0.004740584672109582</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5557025668166293</c:v>
+                  <c:v>0.005557025668166293</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9210526315789558</c:v>
+                  <c:v>0.009210526315789558</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5997392438070293</c:v>
+                  <c:v>0.005997392438070293</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.6739243131156147</c:v>
+                  <c:v>0.006739243131156147</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.6043817678166752</c:v>
+                  <c:v>-0.006043817678166752</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.7600709399543937</c:v>
+                  <c:v>-0.007600709399543937</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.531784528976265</c:v>
+                  <c:v>-0.01531784528976265</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.1814882032667886</c:v>
+                  <c:v>-0.001814882032667886</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.948051948051943</c:v>
+                  <c:v>-0.01948051948051943</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.5562913907284806</c:v>
+                  <c:v>-0.005562913907284806</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6126798082045859</c:v>
+                  <c:v>0.006126798082045859</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.085517606566067</c:v>
+                  <c:v>-0.01085517606566067</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.204496788008569</c:v>
+                  <c:v>-0.01204496788008569</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.6502302898943269</c:v>
+                  <c:v>-0.006502302898943269</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.05454049631852254</c:v>
+                  <c:v>-0.0005454049631852254</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6275579809004173</c:v>
+                  <c:v>0.006275579809004173</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.8134490238611569</c:v>
+                  <c:v>0.008134490238611569</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.779989241527701</c:v>
+                  <c:v>-0.00779989241527701</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4066142586066634</c:v>
+                  <c:v>0.004066142586066634</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.619870410367175</c:v>
+                  <c:v>-0.01619870410367175</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.6037321624588365</c:v>
+                  <c:v>0.006037321624588365</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1363884342607813</c:v>
+                  <c:v>0.001363884342607813</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.03514028874967</c:v>
+                  <c:v>-0.0103514028874967</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-2.449766033581069</c:v>
+                  <c:v>-0.02449766033581069</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.410835214446948</c:v>
+                  <c:v>-0.01410835214446948</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.262736119061249</c:v>
+                  <c:v>0.03262736119061249</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-6.430155210643019</c:v>
+                  <c:v>-0.06430155210643018</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.28080568720378</c:v>
+                  <c:v>-0.0228080568720378</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.2728099424068042</c:v>
+                  <c:v>-0.002728099424068042</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.5775075987841882</c:v>
+                  <c:v>-0.005775075987841882</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.9782940996637013</c:v>
+                  <c:v>0.009782940996637013</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.4844081138359213</c:v>
+                  <c:v>-0.004844081138359213</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.308183754183134</c:v>
+                  <c:v>0.01308183754183134</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.5105105105104979</c:v>
+                  <c:v>-0.005105105105104979</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.177180802897682</c:v>
+                  <c:v>-0.01177180802897682</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.06108735491752171</c:v>
+                  <c:v>0.0006108735491752171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.014652014652007</c:v>
+                  <c:v>-0.02014652014652007</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1246105919002982</c:v>
+                  <c:v>0.001246105919002982</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.8711885500933492</c:v>
+                  <c:v>-0.008711885500933492</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.008788449466414</c:v>
+                  <c:v>0.02008788449466414</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7692307692307665</c:v>
+                  <c:v>0.007692307692307665</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.2137404580152658</c:v>
+                  <c:v>-0.002137404580152658</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.2141982864137137</c:v>
+                  <c:v>0.002141982864137137</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.6717557251908257</c:v>
+                  <c:v>0.006717557251908257</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.9099181073703555</c:v>
+                  <c:v>0.009099181073703555</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.172227231740308</c:v>
+                  <c:v>-0.01172227231740308</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.3041362530413538</c:v>
+                  <c:v>0.003041362530413538</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.000606428138262</c:v>
+                  <c:v>-0.01000606428138262</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.7656967840734996</c:v>
+                  <c:v>0.007656967840734996</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.6382978723404209</c:v>
+                  <c:v>0.006382978723404209</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.114164904862581</c:v>
+                  <c:v>0.02114164904862581</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.005619639159994</c:v>
+                  <c:v>0.01005619639159994</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.4392386530014614</c:v>
+                  <c:v>0.004392386530014614</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.428571428571423</c:v>
+                  <c:v>0.01428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.4024144869215318</c:v>
+                  <c:v>-0.004024144869215318</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.51082251082253</c:v>
+                  <c:v>0.0251082251082253</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.2533783783783883</c:v>
+                  <c:v>-0.002533783783783883</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.100762066045724</c:v>
+                  <c:v>0.01100762066045724</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.340033500837512</c:v>
+                  <c:v>0.01340033500837512</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.771349862258941</c:v>
+                  <c:v>-0.00771349862258941</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.943920044419766</c:v>
+                  <c:v>0.00943920044419766</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.1925192519251939</c:v>
+                  <c:v>-0.001925192519251939</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.3306696059520497</c:v>
+                  <c:v>-0.003306696059520497</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.5529444290848895</c:v>
+                  <c:v>-0.005529444290848895</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.3336113427856446</c:v>
+                  <c:v>-0.003336113427856446</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.6415620641562203</c:v>
+                  <c:v>-0.006415620641562203</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.7299270072992803</c:v>
+                  <c:v>0.007299270072992803</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.05908584169454</c:v>
+                  <c:v>-0.0105908584169454</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.2253521126760472</c:v>
+                  <c:v>-0.002253521126760472</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.7622811970637855</c:v>
+                  <c:v>0.007622811970637855</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.6724572709442267</c:v>
+                  <c:v>-0.006724572709442267</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-2.84908321579691</c:v>
+                  <c:v>-0.0284908321579691</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.464576074332157</c:v>
+                  <c:v>-0.00464576074332157</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.6417736289381581</c:v>
+                  <c:v>-0.006417736289381581</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.055196711685259</c:v>
+                  <c:v>0.02055196711685259</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.08630609896433938</c:v>
+                  <c:v>0.0008630609896433938</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.2586950273066879</c:v>
+                  <c:v>-0.002586950273066879</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.527377521613837</c:v>
+                  <c:v>-0.01527377521613837</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.05853087503657761</c:v>
+                  <c:v>0.0005853087503657761</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.696402456858725</c:v>
+                  <c:v>-0.01696402456858725</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.1785182981255629</c:v>
+                  <c:v>-0.001785182981255629</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.71535022354694</c:v>
+                  <c:v>0.0071535022354694</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.6806747558449122</c:v>
+                  <c:v>-0.006806747558449122</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-1.2216924910608</c:v>
+                  <c:v>-0.012216924910608</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.9954751131221684</c:v>
+                  <c:v>0.009954751131221684</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.1194743130227272</c:v>
+                  <c:v>0.001194743130227272</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-1.282816229116945</c:v>
+                  <c:v>-0.01282816229116945</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.543970988213982</c:v>
+                  <c:v>-0.00543970988213982</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.6381039197812077</c:v>
+                  <c:v>-0.006381039197812077</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.6422018348623659</c:v>
+                  <c:v>0.006422018348623659</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.06077180188391873</c:v>
+                  <c:v>-0.0006077180188391873</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-2.189115232593486</c:v>
+                  <c:v>-0.02189115232593486</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.367733913584068</c:v>
+                  <c:v>0.01367733913584068</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-2.299908003679851</c:v>
+                  <c:v>-0.02299908003679851</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.1255492780916523</c:v>
+                  <c:v>0.001255492780916523</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.7836990595611271</c:v>
+                  <c:v>0.007836990595611271</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.555209953343706</c:v>
+                  <c:v>0.01555209953343706</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.9494640122511555</c:v>
+                  <c:v>0.009494640122511555</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-1.334951456310673</c:v>
+                  <c:v>-0.01334951456310673</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.2152521525215279</c:v>
+                  <c:v>-0.002152521525215279</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-2.157164869029282</c:v>
+                  <c:v>-0.02157164869029282</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-2.047244094488188</c:v>
+                  <c:v>-0.02047244094488188</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.247588424437287</c:v>
+                  <c:v>0.03247588424437287</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-3.643724696356265</c:v>
+                  <c:v>-0.03643724696356265</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>11.24757595345831</c:v>
+                  <c:v>0.1124757595345831</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-3.166763509587456</c:v>
+                  <c:v>-0.03166763509587456</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.2700270027002571</c:v>
+                  <c:v>-0.002700270027002571</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.3910950661853096</c:v>
+                  <c:v>0.003910950661853096</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.018879232843872</c:v>
+                  <c:v>0.01018879232843872</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.02966478789676597</c:v>
+                  <c:v>-0.0002966478789676597</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.068249258160225</c:v>
+                  <c:v>0.01068249258160225</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.2935995302407512</c:v>
+                  <c:v>-0.002935995302407512</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.825677267373371</c:v>
+                  <c:v>0.01825677267373371</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.3470213996529914</c:v>
+                  <c:v>0.003470213996529914</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-1.268011527377533</c:v>
+                  <c:v>-0.01268011527377533</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.1459427904261457</c:v>
+                  <c:v>-0.001459427904261457</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.5261619409529406</c:v>
+                  <c:v>0.005261619409529406</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.5234079674323988</c:v>
+                  <c:v>0.005234079674323988</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.02892681515764828</c:v>
+                  <c:v>0.0002892681515764828</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.776171197223842</c:v>
+                  <c:v>0.02776171197223842</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.3376477208778761</c:v>
+                  <c:v>0.003376477208778761</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.3365114974761774</c:v>
+                  <c:v>0.003365114974761774</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-1.034097261039701</c:v>
+                  <c:v>-0.01034097261039701</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.1694436599830595</c:v>
+                  <c:v>0.001694436599830595</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.1409641950944618</c:v>
+                  <c:v>0.001409641950944618</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-4.42004504504504</c:v>
+                  <c:v>-0.0442004504504504</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.119293078055961</c:v>
+                  <c:v>0.01119293078055961</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.330323332362383</c:v>
+                  <c:v>0.02330323332362383</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.5123825789923098</c:v>
+                  <c:v>0.005123825789923098</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-0.5097706032285432</c:v>
+                  <c:v>-0.005097706032285432</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.8539709649871829</c:v>
+                  <c:v>0.008539709649871829</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.05644933672029895</c:v>
+                  <c:v>-0.0005644933672029895</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.372211239762789</c:v>
+                  <c:v>0.02372211239762789</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-3.475862068965507</c:v>
+                  <c:v>-0.03475862068965507</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-1.028865390111455</c:v>
+                  <c:v>-0.01028865390111455</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.00282087447109</c:v>
+                  <c:v>-0.0200282087447109</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.4317789291882423</c:v>
+                  <c:v>0.004317789291882423</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.031814273430776</c:v>
+                  <c:v>0.01031814273430776</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.5957446808510625</c:v>
+                  <c:v>0.005957446808510625</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-1.836393989983298</c:v>
+                  <c:v>-0.01836393989983298</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-0.1700680272108901</c:v>
+                  <c:v>-0.001700680272108901</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.164111300397508</c:v>
+                  <c:v>0.01164111300397508</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.505192253718767</c:v>
+                  <c:v>0.00505192253718767</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.3630270874057429</c:v>
+                  <c:v>0.003630270874057429</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-0.6956037840845863</c:v>
+                  <c:v>-0.006956037840845863</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-1.064724012328366</c:v>
+                  <c:v>-0.01064724012328366</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.331067686207876</c:v>
+                  <c:v>0.01331067686207876</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.02794857462269373</c:v>
+                  <c:v>0.0002794857462269373</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-1.173512154233036</c:v>
+                  <c:v>-0.01173512154233036</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.6219960418433867</c:v>
+                  <c:v>0.006219960418433867</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.798257937622916</c:v>
+                  <c:v>0.01798257937622916</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.876897598675131</c:v>
+                  <c:v>0.01876897598675131</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>4.632890815497159</c:v>
+                  <c:v>0.04632890815497159</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.1035732780942489</c:v>
+                  <c:v>-0.001035732780942489</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.244167962674969</c:v>
+                  <c:v>0.01244167962674969</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.100870455709169</c:v>
+                  <c:v>0.01100870455709169</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.342111927070144</c:v>
+                  <c:v>0.01342111927070144</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.2748625687156614</c:v>
+                  <c:v>-0.002748625687156614</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.6514657980456251</c:v>
+                  <c:v>0.006514657980456251</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.199153597211843</c:v>
+                  <c:v>-0.00199153597211843</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.022698927413335</c:v>
+                  <c:v>-0.01022698927413335</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.9828629032258118</c:v>
+                  <c:v>-0.009828629032258118</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.432680071264957</c:v>
+                  <c:v>-0.00432680071264957</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.1533742331288446</c:v>
+                  <c:v>0.001533742331288446</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.9954058192955584</c:v>
+                  <c:v>0.009954058192955584</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.07581501137225999</c:v>
+                  <c:v>0.0007581501137225999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.328282828282811</c:v>
+                  <c:v>0.00328282828282811</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.05033979360684615</c:v>
+                  <c:v>0.0005033979360684615</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.566037735849069</c:v>
+                  <c:v>0.02566037735849069</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-6.720627912680898</c:v>
+                  <c:v>-0.06720627912680899</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1.893242177228505</c:v>
+                  <c:v>-0.01893242177228505</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.6432591798445464</c:v>
+                  <c:v>-0.006432591798445464</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-5.206366333962775</c:v>
+                  <c:v>-0.05206366333962775</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-1.764371087080241</c:v>
+                  <c:v>-0.01764371087080241</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.969872537659323</c:v>
+                  <c:v>0.01969872537659323</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.1704545454545237</c:v>
+                  <c:v>0.001704545454545237</c:v>
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-0.311968235961424</c:v>
+                  <c:v>-0.00311968235961424</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.9672830725462322</c:v>
+                  <c:v>0.009672830725462322</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.944209636517313</c:v>
+                  <c:v>0.01944209636517313</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-0.3040353786622374</c:v>
+                  <c:v>-0.003040353786622374</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.663432215137228</c:v>
+                  <c:v>0.01663432215137228</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-0.8181074447777603</c:v>
+                  <c:v>-0.008181074447777603</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.319769040417929</c:v>
+                  <c:v>0.01319769040417929</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.1628222523744727</c:v>
+                  <c:v>0.001628222523744727</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-2.411270658358156</c:v>
+                  <c:v>-0.02411270658358156</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-0.6940588561910044</c:v>
+                  <c:v>-0.006940588561910044</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-0.2236511042773448</c:v>
+                  <c:v>-0.002236511042773448</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.2801905295600871</c:v>
+                  <c:v>-0.002801905295600871</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.3933689238549976</c:v>
+                  <c:v>0.003933689238549976</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-0.5317660229498977</c:v>
+                  <c:v>-0.005317660229498977</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.1125492402926254</c:v>
+                  <c:v>0.001125492402926254</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.377178189994388</c:v>
+                  <c:v>0.01377178189994388</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1.968394787912398</c:v>
+                  <c:v>0.01968394787912398</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.4622077215878262</c:v>
+                  <c:v>0.004622077215878262</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.02706359945874315</c:v>
+                  <c:v>-0.0002706359945874315</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.08121277747699107</c:v>
+                  <c:v>0.0008121277747699107</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-1.379496889369758</c:v>
+                  <c:v>-0.01379496889369758</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1.069665386725172</c:v>
+                  <c:v>0.01069665386725172</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.1356852103120643</c:v>
+                  <c:v>0.001356852103120643</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.9214092140921393</c:v>
+                  <c:v>0.009214092140921393</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.1342642320085963</c:v>
+                  <c:v>0.001342642320085963</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-1.474926253687303</c:v>
+                  <c:v>-0.01474926253687303</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.1088731627653772</c:v>
+                  <c:v>0.001088731627653772</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-1.277868406742788</c:v>
+                  <c:v>-0.01277868406742788</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1.129165519140729</c:v>
+                  <c:v>0.01129165519140729</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.933551198257089</c:v>
+                  <c:v>0.01933551198257089</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1.41597648944698</c:v>
+                  <c:v>0.0141597648944698</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1.606954689146467</c:v>
+                  <c:v>0.01606954689146467</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-1.192636764324606</c:v>
+                  <c:v>-0.01192636764324606</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.994227236945689</c:v>
+                  <c:v>0.01994227236945689</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1.029071263184989</c:v>
+                  <c:v>0.01029071263184989</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.3310415075120865</c:v>
+                  <c:v>0.003310415075120865</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.5583756345177604</c:v>
+                  <c:v>-0.005583756345177604</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-2.067381316998473</c:v>
+                  <c:v>-0.02067381316998473</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.390930414386248</c:v>
+                  <c:v>0.00390930414386248</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.6230529595015355</c:v>
+                  <c:v>0.006230529595015355</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-0.1547987616098978</c:v>
+                  <c:v>-0.001547987616098978</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-1.834625322997419</c:v>
+                  <c:v>-0.01834625322997419</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1.052908660173735</c:v>
+                  <c:v>0.01052908660173735</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.07814535035166603</c:v>
+                  <c:v>0.0007814535035166603</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1.275377407600198</c:v>
+                  <c:v>0.01275377407600198</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-1.644821382677963</c:v>
+                  <c:v>-0.01644821382677963</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-2.545176889793843</c:v>
+                  <c:v>-0.02545176889793843</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.2089318359885128</c:v>
+                  <c:v>0.002089318359885128</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1.511597602293469</c:v>
+                  <c:v>0.01511597602293469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,751 +2465,751 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>-1.121301589295809</c:v>
+                  <c:v>-0.01121301589295809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6528302483284065</c:v>
+                  <c:v>0.006528302483284065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.50827142467469</c:v>
+                  <c:v>0.0150827142467469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.07615779895944197</c:v>
+                  <c:v>-0.0007615779895944197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.3252149455045261</c:v>
+                  <c:v>-0.003252149455045261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.3384485518383773</c:v>
+                  <c:v>-0.003384485518383773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35884402672548</c:v>
+                  <c:v>0.0035884402672548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7472060291796812</c:v>
+                  <c:v>0.007472060291796812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02013352554139924</c:v>
+                  <c:v>0.0002013352554139924</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.1752566545273337</c:v>
+                  <c:v>-0.001752566545273337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.7539853511417505</c:v>
+                  <c:v>-0.007539853511417505</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.4859225382306653</c:v>
+                  <c:v>-0.004859225382306653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.138183302458473</c:v>
+                  <c:v>-0.01138183302458473</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.5138457213363146</c:v>
+                  <c:v>-0.005138457213363146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.413503733928712</c:v>
+                  <c:v>-0.01413503733928712</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8016638599377623</c:v>
+                  <c:v>0.008016638599377623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.62624709176229</c:v>
+                  <c:v>0.0162624709176229</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.4967511065072094</c:v>
+                  <c:v>-0.004967511065072094</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0863978384831654</c:v>
+                  <c:v>0.000863978384831654</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.1811068687328055</c:v>
+                  <c:v>-0.001811068687328055</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4401921411134824</c:v>
+                  <c:v>0.004401921411134824</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.8711535759449163</c:v>
+                  <c:v>-0.008711535759449163</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3250033283473286</c:v>
+                  <c:v>0.003250033283473286</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6526725680458423</c:v>
+                  <c:v>0.006526725680458423</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.0535724133584381</c:v>
+                  <c:v>-0.000535724133584381</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.07557448416478652</c:v>
+                  <c:v>-0.0007557448416478652</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.8832778033536437</c:v>
+                  <c:v>-0.008832778033536437</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.7481122942884832</c:v>
+                  <c:v>-0.007481122942884832</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.251480055516785</c:v>
+                  <c:v>0.01251480055516785</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4529199552593788</c:v>
+                  <c:v>0.004529199552593788</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1672689400514349</c:v>
+                  <c:v>0.001672689400514349</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.7424230558383593</c:v>
+                  <c:v>-0.007424230558383593</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.2468634282768001</c:v>
+                  <c:v>-0.002468634282768001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2647491932199042</c:v>
+                  <c:v>0.002647491932199042</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.224192064951946</c:v>
+                  <c:v>0.01224192064951946</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.7452526540280613</c:v>
+                  <c:v>-0.007452526540280613</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.9887798036465667</c:v>
+                  <c:v>-0.009887798036465667</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.4267204593063845</c:v>
+                  <c:v>-0.004267204593063845</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6182766319536626</c:v>
+                  <c:v>0.006182766319536626</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.1893393381694031</c:v>
+                  <c:v>-0.001893393381694031</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.6494813438612801</c:v>
+                  <c:v>-0.006494813438612801</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1240117811192043</c:v>
+                  <c:v>0.001240117811192043</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.8720371864315624</c:v>
+                  <c:v>-0.008720371864315624</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.164865706323226</c:v>
+                  <c:v>-0.01164865706323226</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.604826825297634</c:v>
+                  <c:v>0.01604826825297634</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1468099738060058</c:v>
+                  <c:v>0.001468099738060058</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.6311376601838115</c:v>
+                  <c:v>-0.006311376601838115</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1607296665436131</c:v>
+                  <c:v>0.001607296665436131</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.08928846331475171</c:v>
+                  <c:v>0.0008928846331475171</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.6819802225735527</c:v>
+                  <c:v>0.006819802225735527</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.2408215900439714</c:v>
+                  <c:v>0.002408215900439714</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.7214171700416161</c:v>
+                  <c:v>0.007214171700416161</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.6188099324505147</c:v>
+                  <c:v>0.006188099324505147</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.7873400715479706</c:v>
+                  <c:v>-0.007873400715479706</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.1489662057293506</c:v>
+                  <c:v>-0.001489662057293506</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.073236219986418</c:v>
+                  <c:v>-0.01073236219986418</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.6195558827137737</c:v>
+                  <c:v>-0.006195558827137737</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.212503820742517</c:v>
+                  <c:v>0.02212503820742517</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.3231589375854993</c:v>
+                  <c:v>0.003231589375854993</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.011044434585662</c:v>
+                  <c:v>-0.01011044434585662</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.570636858914142</c:v>
+                  <c:v>0.00570636858914142</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.2747209619943236</c:v>
+                  <c:v>0.002747209619943236</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.8567893356575373</c:v>
+                  <c:v>-0.008567893356575373</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.3597819597261354</c:v>
+                  <c:v>-0.003597819597261354</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.6226154530346584</c:v>
+                  <c:v>0.006226154530346584</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.2761782562433535</c:v>
+                  <c:v>0.002761782562433535</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.3485026858875861</c:v>
+                  <c:v>-0.003485026858875861</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.311985592644671</c:v>
+                  <c:v>0.01311985592644671</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.8101162681375174</c:v>
+                  <c:v>-0.008101162681375174</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.2513431147695533</c:v>
+                  <c:v>0.002513431147695533</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.9399022750614661</c:v>
+                  <c:v>-0.009399022750614661</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.5955419431682873</c:v>
+                  <c:v>-0.005955419431682873</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-1.693265714220538</c:v>
+                  <c:v>-0.01693265714220538</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.4069075029773828</c:v>
+                  <c:v>0.004069075029773828</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.259473857434811</c:v>
+                  <c:v>0.00259473857434811</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.146742993404203</c:v>
+                  <c:v>-0.00146742993404203</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.4610223131756519</c:v>
+                  <c:v>-0.004610223131756519</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.7400303563472654</c:v>
+                  <c:v>-0.007400303563472654</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.3060072866091446</c:v>
+                  <c:v>0.003060072866091446</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.6073491533689968</c:v>
+                  <c:v>0.006073491533689968</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.210533447761863</c:v>
+                  <c:v>-0.01210533447761863</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1032427259094026</c:v>
+                  <c:v>0.001032427259094026</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.108916793978465</c:v>
+                  <c:v>-0.01108916793978465</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.006706708198578326</c:v>
+                  <c:v>-6.706708198578326e-05</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.4950087244351531</c:v>
+                  <c:v>0.004950087244351531</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5875573433368642</c:v>
+                  <c:v>0.005875573433368642</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.431980148583011</c:v>
+                  <c:v>0.00431980148583011</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.053484602917343</c:v>
+                  <c:v>0.01053484602917343</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.7940781639881433</c:v>
+                  <c:v>-0.007940781639881433</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5851209911202027</c:v>
+                  <c:v>0.005851209911202027</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.6812752982019665</c:v>
+                  <c:v>0.006812752982019665</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.4929609758334452</c:v>
+                  <c:v>-0.004929609758334452</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.063607924921794</c:v>
+                  <c:v>0.01063607924921794</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.422410860501722</c:v>
+                  <c:v>0.02422410860501722</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.4042043556367947</c:v>
+                  <c:v>-0.004042043556367947</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.1400538184336053</c:v>
+                  <c:v>-0.001400538184336053</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.8602491865725037</c:v>
+                  <c:v>0.008602491865725037</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.3080646060036774</c:v>
+                  <c:v>0.003080646060036774</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.008644397689573</c:v>
+                  <c:v>-0.01008644397689573</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.07886248748059099</c:v>
+                  <c:v>0.0007886248748059099</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.014808396368549</c:v>
+                  <c:v>-0.01014808396368549</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.6062938326095058</c:v>
+                  <c:v>0.006062938326095058</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.975408601042016</c:v>
+                  <c:v>0.00975408601042016</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.3453508037111419</c:v>
+                  <c:v>-0.003453508037111419</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.6802829340483596</c:v>
+                  <c:v>0.006802829340483596</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.1123130107852255</c:v>
+                  <c:v>0.001123130107852255</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.8169005182657063</c:v>
+                  <c:v>-0.008169005182657063</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.4292458444083103</c:v>
+                  <c:v>0.004292458444083103</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.3407453406259142</c:v>
+                  <c:v>0.003407453406259142</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.3870097942027861</c:v>
+                  <c:v>-0.003870097942027861</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.8259903088068343</c:v>
+                  <c:v>0.008259903088068343</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.3901232982275848</c:v>
+                  <c:v>0.003901232982275848</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.011935651271401</c:v>
+                  <c:v>0.01011935651271401</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.452316076294281</c:v>
+                  <c:v>0.02452316076294281</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.2155243874133794</c:v>
+                  <c:v>-0.002155243874133794</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.364568278829026</c:v>
+                  <c:v>0.01364568278829026</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.07304847227936895</c:v>
+                  <c:v>-0.0007304847227936895</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.1416976892376853</c:v>
+                  <c:v>-0.001416976892376853</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.6591440411184424</c:v>
+                  <c:v>0.006591440411184424</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.2767433987813206</c:v>
+                  <c:v>0.002767433987813206</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.700494554683486</c:v>
+                  <c:v>0.02700494554683486</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.68723043201584</c:v>
+                  <c:v>0.0168723043201584</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.5438453062240001</c:v>
+                  <c:v>0.005438453062240001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.6787230474576522</c:v>
+                  <c:v>-0.006787230474576522</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-1.285971928173768</c:v>
+                  <c:v>-0.01285971928173768</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.72560489231588</c:v>
+                  <c:v>0.0172560489231588</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.8192542325205276</c:v>
+                  <c:v>-0.008192542325205276</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8662499445848404</c:v>
+                  <c:v>0.008662499445848404</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.326985108921396</c:v>
+                  <c:v>-0.00326985108921396</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.7447107119048502</c:v>
+                  <c:v>-0.007447107119048502</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.04909696650885476</c:v>
+                  <c:v>-0.0004909696650885476</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-1.594367946992448</c:v>
+                  <c:v>-0.01594367946992448</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.5371822815658955</c:v>
+                  <c:v>-0.005371822815658955</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.6738428045683031</c:v>
+                  <c:v>0.006738428045683031</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-1.108064006287857</c:v>
+                  <c:v>-0.01108064006287857</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.2689807002064448</c:v>
+                  <c:v>0.002689807002064448</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.372920212581197</c:v>
+                  <c:v>0.01372920212581197</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.8636244197249621</c:v>
+                  <c:v>0.008636244197249621</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.7821051516542443</c:v>
+                  <c:v>0.007821051516542443</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.2843134665997726</c:v>
+                  <c:v>-0.002843134665997726</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.1657570601045766</c:v>
+                  <c:v>0.001657570601045766</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-1.423642194738262</c:v>
+                  <c:v>-0.01423642194738262</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-1.293698794663922</c:v>
+                  <c:v>-0.01293698794663922</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.7206366487803706</c:v>
+                  <c:v>0.007206366487803706</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1.228056364638275</c:v>
+                  <c:v>0.01228056364638275</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.117345196290497</c:v>
+                  <c:v>0.00117345196290497</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-1.494069441449208</c:v>
+                  <c:v>-0.01494069441449208</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-0.07240817522778942</c:v>
+                  <c:v>-0.0007240817522778942</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.1170950105471635</c:v>
+                  <c:v>-0.001170950105471635</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-2.148363452546442</c:v>
+                  <c:v>-0.02148363452546442</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.7204317499108992</c:v>
+                  <c:v>0.007204317499108992</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.3736642770188037</c:v>
+                  <c:v>-0.003736642770188037</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-0.3957628117684742</c:v>
+                  <c:v>-0.003957628117684742</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.53102385419459</c:v>
+                  <c:v>-0.0053102385419459</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.028973734091521</c:v>
+                  <c:v>0.01028973734091521</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.176319001763181</c:v>
+                  <c:v>0.00176319001763181</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.9282787060564734</c:v>
+                  <c:v>0.009282787060564734</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.361511711602326</c:v>
+                  <c:v>0.01361511711602326</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.5793852653360299</c:v>
+                  <c:v>-0.005793852653360299</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-1.14718190418559</c:v>
+                  <c:v>-0.0114718190418559</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.3786817460115333</c:v>
+                  <c:v>-0.003786817460115333</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.09839430670184335</c:v>
+                  <c:v>-0.0009839430670184335</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.858443780131669</c:v>
+                  <c:v>0.01858443780131669</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-1.525503041647169</c:v>
+                  <c:v>-0.01525503041647169</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-0.7339279078409477</c:v>
+                  <c:v>-0.007339279078409477</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.095448297060297</c:v>
+                  <c:v>0.01095448297060297</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.108454120876745</c:v>
+                  <c:v>0.01108454120876745</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-1.016013535453664</c:v>
+                  <c:v>-0.01016013535453664</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-0.9387565073856186</c:v>
+                  <c:v>-0.009387565073856186</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.703743241847167</c:v>
+                  <c:v>0.01703743241847167</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.50923279937778</c:v>
+                  <c:v>0.0150923279937778</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-0.8491538788136133</c:v>
+                  <c:v>-0.008491538788136133</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.371362474126391</c:v>
+                  <c:v>0.00371362474126391</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.5277181811890075</c:v>
+                  <c:v>-0.005277181811890075</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.498403215948906</c:v>
+                  <c:v>-0.00498403215948906</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.5470422052906376</c:v>
+                  <c:v>-0.005470422052906376</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-1.062973785626564</c:v>
+                  <c:v>-0.01062973785626564</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.2408111533586776</c:v>
+                  <c:v>-0.002408111533586776</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.04982729353343318</c:v>
+                  <c:v>-0.0004982729353343318</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.5718364262322639</c:v>
+                  <c:v>-0.005718364262322639</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.2429217624392743</c:v>
+                  <c:v>-0.002429217624392743</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.1071058004485037</c:v>
+                  <c:v>-0.001071058004485037</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.893967790622463</c:v>
+                  <c:v>-0.00893967790622463</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.2258830538064971</c:v>
+                  <c:v>-0.002258830538064971</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.3208300343098491</c:v>
+                  <c:v>-0.003208300343098491</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.5699384138490915</c:v>
+                  <c:v>-0.005699384138490915</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.461056520255943</c:v>
+                  <c:v>0.01461056520255943</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.1641803483623638</c:v>
+                  <c:v>0.001641803483623638</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-2.09693211488251</c:v>
+                  <c:v>-0.0209693211488251</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.4524293488951558</c:v>
+                  <c:v>0.004524293488951558</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.5488618944800683</c:v>
+                  <c:v>0.005488618944800683</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.9358077476563142</c:v>
+                  <c:v>0.009358077476563142</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.807203407772495</c:v>
+                  <c:v>0.01807203407772495</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.4517149857084624</c:v>
+                  <c:v>0.004517149857084624</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.2452457124430429</c:v>
+                  <c:v>-0.002452457124430429</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.3197455569747709</c:v>
+                  <c:v>-0.003197455569747709</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.4315654441810812</c:v>
+                  <c:v>0.004315654441810812</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1.302153206332168</c:v>
+                  <c:v>-0.01302153206332168</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.358081348902829</c:v>
+                  <c:v>0.01358081348902829</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.3804811465620173</c:v>
+                  <c:v>0.003804811465620173</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-0.6121653015889184</c:v>
+                  <c:v>-0.006121653015889184</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-0.8040505307069901</c:v>
+                  <c:v>-0.008040505307069901</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.253555430654196</c:v>
+                  <c:v>0.01253555430654196</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-1.775840868597811</c:v>
+                  <c:v>-0.01775840868597811</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.3972253014881355</c:v>
+                  <c:v>0.003972253014881355</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-0.4988593918427764</c:v>
+                  <c:v>-0.004988593918427764</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.343077561458927</c:v>
+                  <c:v>0.01343077561458927</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-0.2500359004248942</c:v>
+                  <c:v>-0.002500359004248942</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.458677933853836</c:v>
+                  <c:v>0.01458677933853836</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-0.7164555023272068</c:v>
+                  <c:v>-0.007164555023272068</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-0.6089155383405376</c:v>
+                  <c:v>-0.006089155383405376</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-0.6169259604797528</c:v>
+                  <c:v>-0.006169259604797528</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.03615450586038627</c:v>
+                  <c:v>0.0003615450586038627</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-1.234014283341633</c:v>
+                  <c:v>-0.01234014283341633</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.6671013693133387</c:v>
+                  <c:v>0.006671013693133387</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.1968996646031118</c:v>
+                  <c:v>-0.001968996646031118</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.9262533892453462</c:v>
+                  <c:v>0.009262533892453462</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.3883544006508921</c:v>
+                  <c:v>-0.003883544006508921</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.1276570727897219</c:v>
+                  <c:v>0.001276570727897219</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1.992410679869461</c:v>
+                  <c:v>0.01992410679869461</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-0.5053862412217947</c:v>
+                  <c:v>-0.005053862412217947</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.270896179252933</c:v>
+                  <c:v>0.00270896179252933</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1.325678858409529</c:v>
+                  <c:v>0.01325678858409529</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.7660762586161773</c:v>
+                  <c:v>0.007660762586161773</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1.69837438773337</c:v>
+                  <c:v>0.0169837438773337</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.1226034577728852</c:v>
+                  <c:v>0.001226034577728852</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1.802559580337348</c:v>
+                  <c:v>0.01802559580337348</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.058429870309686</c:v>
+                  <c:v>0.02058429870309686</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.5799921077023318</c:v>
+                  <c:v>-0.005799921077023318</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-1.238070205650166</c:v>
+                  <c:v>-0.01238070205650166</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-0.5166537428092255</c:v>
+                  <c:v>-0.005166537428092255</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.7741654097079609</c:v>
+                  <c:v>0.007741654097079609</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1.15257352941176</c:v>
+                  <c:v>0.0115257352941176</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-1.02702653530915</c:v>
+                  <c:v>-0.0102702653530915</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.257682850480434</c:v>
+                  <c:v>-0.00257682850480434</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-0.4803828615287387</c:v>
+                  <c:v>-0.004803828615287387</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.5785229047843954</c:v>
+                  <c:v>0.005785229047843954</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.5919970765576377</c:v>
+                  <c:v>0.005919970765576377</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1.170120339390346</c:v>
+                  <c:v>0.01170120339390346</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-0.7658512872721901</c:v>
+                  <c:v>-0.007658512872721901</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.5209101637409619</c:v>
+                  <c:v>0.005209101637409619</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.1921371563700758</c:v>
+                  <c:v>0.001921371563700758</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.7519916610825739</c:v>
+                  <c:v>0.007519916610825739</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.3118173161304805</c:v>
+                  <c:v>0.003118173161304805</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1.010920201429633</c:v>
+                  <c:v>0.01010920201429633</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.8502301517860467</c:v>
+                  <c:v>0.008502301517860467</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>2.910720927046029</c:v>
+                  <c:v>0.02910720927046029</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.3703449021090988</c:v>
+                  <c:v>0.003703449021090988</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-0.1275422606375143</c:v>
+                  <c:v>-0.001275422606375143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,10 +3638,10 @@
         <v>45412</v>
       </c>
       <c r="B2">
-        <v>1.785252263906867</v>
+        <v>0.01785252263906867</v>
       </c>
       <c r="C2">
-        <v>-1.121301589295809</v>
+        <v>-0.01121301589295809</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3652,10 +3652,10 @@
         <v>45411</v>
       </c>
       <c r="B3">
-        <v>-0.4829689883070754</v>
+        <v>-0.004829689883070754</v>
       </c>
       <c r="C3">
-        <v>0.6528302483284065</v>
+        <v>0.006528302483284065</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3666,10 +3666,10 @@
         <v>45408</v>
       </c>
       <c r="B4">
-        <v>-0.3575989782886313</v>
+        <v>-0.003575989782886313</v>
       </c>
       <c r="C4">
-        <v>1.50827142467469</v>
+        <v>0.0150827142467469</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -3680,10 +3680,10 @@
         <v>45407</v>
       </c>
       <c r="B5">
-        <v>-1.384260446039476</v>
+        <v>-0.01384260446039476</v>
       </c>
       <c r="C5">
-        <v>-0.07615779895944197</v>
+        <v>-0.0007615779895944197</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -3694,10 +3694,10 @@
         <v>45406</v>
       </c>
       <c r="B6">
-        <v>-1.143748375357412</v>
+        <v>-0.01143748375357412</v>
       </c>
       <c r="C6">
-        <v>-0.3252149455045261</v>
+        <v>-0.003252149455045261</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -3708,10 +3708,10 @@
         <v>45405</v>
       </c>
       <c r="B7">
-        <v>-0.6310807257428386</v>
+        <v>-0.006310807257428386</v>
       </c>
       <c r="C7">
-        <v>-0.3384485518383773</v>
+        <v>-0.003384485518383773</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -3722,10 +3722,10 @@
         <v>45404</v>
       </c>
       <c r="B8">
-        <v>0.7409367557554836</v>
+        <v>0.007409367557554836</v>
       </c>
       <c r="C8">
-        <v>0.35884402672548</v>
+        <v>0.0035884402672548</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -3736,10 +3736,10 @@
         <v>45401</v>
       </c>
       <c r="B9">
-        <v>0.7354872603099638</v>
+        <v>0.007354872603099638</v>
       </c>
       <c r="C9">
-        <v>0.7472060291796812</v>
+        <v>0.007472060291796812</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -3750,10 +3750,10 @@
         <v>45400</v>
       </c>
       <c r="B10">
-        <v>0.1303780964797774</v>
+        <v>0.001303780964797774</v>
       </c>
       <c r="C10">
-        <v>0.02013352554139924</v>
+        <v>0.0002013352554139924</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -3764,10 +3764,10 @@
         <v>45399</v>
       </c>
       <c r="B11">
-        <v>-0.9895833333333215</v>
+        <v>-0.009895833333333215</v>
       </c>
       <c r="C11">
-        <v>-0.1752566545273337</v>
+        <v>-0.001752566545273337</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -3778,10 +3778,10 @@
         <v>45398</v>
       </c>
       <c r="B12">
-        <v>1.446607048921611</v>
+        <v>0.01446607048921611</v>
       </c>
       <c r="C12">
-        <v>-0.7539853511417505</v>
+        <v>-0.007539853511417505</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -3792,10 +3792,10 @@
         <v>45397</v>
       </c>
       <c r="B13">
-        <v>-2.929738138449578</v>
+        <v>-0.02929738138449578</v>
       </c>
       <c r="C13">
-        <v>-0.4859225382306653</v>
+        <v>-0.004859225382306653</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -3806,10 +3806,10 @@
         <v>45394</v>
       </c>
       <c r="B14">
-        <v>0.9081196581196771</v>
+        <v>0.009081196581196771</v>
       </c>
       <c r="C14">
-        <v>-1.138183302458473</v>
+        <v>-0.01138183302458473</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -3820,10 +3820,10 @@
         <v>45393</v>
       </c>
       <c r="B15">
-        <v>0.6881948120698755</v>
+        <v>0.006881948120698755</v>
       </c>
       <c r="C15">
-        <v>-0.5138457213363146</v>
+        <v>-0.005138457213363146</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -3834,10 +3834,10 @@
         <v>45392</v>
       </c>
       <c r="B16">
-        <v>0.4206098843323014</v>
+        <v>0.004206098843323014</v>
       </c>
       <c r="C16">
-        <v>-1.413503733928712</v>
+        <v>-0.01413503733928712</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -3848,10 +3848,10 @@
         <v>45391</v>
       </c>
       <c r="B17">
-        <v>1.047120418848158</v>
+        <v>0.01047120418848158</v>
       </c>
       <c r="C17">
-        <v>0.8016638599377623</v>
+        <v>0.008016638599377623</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -3862,10 +3862,10 @@
         <v>45390</v>
       </c>
       <c r="B18">
-        <v>-1.554404145077726</v>
+        <v>-0.01554404145077726</v>
       </c>
       <c r="C18">
-        <v>1.62624709176229</v>
+        <v>0.0162624709176229</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -3876,10 +3876,10 @@
         <v>45387</v>
       </c>
       <c r="B19">
-        <v>-0.5526315789473712</v>
+        <v>-0.005526315789473712</v>
       </c>
       <c r="C19">
-        <v>-0.4967511065072094</v>
+        <v>-0.004967511065072094</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -3890,10 +3890,10 @@
         <v>45386</v>
       </c>
       <c r="B20">
-        <v>0.2910822969039328</v>
+        <v>0.002910822969039328</v>
       </c>
       <c r="C20">
-        <v>0.0863978384831654</v>
+        <v>0.000863978384831654</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -3904,10 +3904,10 @@
         <v>45385</v>
       </c>
       <c r="B21">
-        <v>-0.5540897097625397</v>
+        <v>-0.005540897097625397</v>
       </c>
       <c r="C21">
-        <v>-0.1811068687328055</v>
+        <v>-0.001811068687328055</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -3918,10 +3918,10 @@
         <v>45384</v>
       </c>
       <c r="B22">
-        <v>0.7429026266914329</v>
+        <v>0.007429026266914329</v>
       </c>
       <c r="C22">
-        <v>0.4401921411134824</v>
+        <v>0.004401921411134824</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -3932,10 +3932,10 @@
         <v>45383</v>
       </c>
       <c r="B23">
-        <v>-0.4740584672109582</v>
+        <v>-0.004740584672109582</v>
       </c>
       <c r="C23">
-        <v>-0.8711535759449163</v>
+        <v>-0.008711535759449163</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -3946,10 +3946,10 @@
         <v>45379</v>
       </c>
       <c r="B24">
-        <v>0.5557025668166293</v>
+        <v>0.005557025668166293</v>
       </c>
       <c r="C24">
-        <v>0.3250033283473286</v>
+        <v>0.003250033283473286</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -3960,10 +3960,10 @@
         <v>45378</v>
       </c>
       <c r="B25">
-        <v>0.9210526315789558</v>
+        <v>0.009210526315789558</v>
       </c>
       <c r="C25">
-        <v>0.6526725680458423</v>
+        <v>0.006526725680458423</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -3974,10 +3974,10 @@
         <v>45377</v>
       </c>
       <c r="B26">
-        <v>0.5997392438070293</v>
+        <v>0.005997392438070293</v>
       </c>
       <c r="C26">
-        <v>-0.0535724133584381</v>
+        <v>-0.000535724133584381</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -3988,10 +3988,10 @@
         <v>45376</v>
       </c>
       <c r="B27">
-        <v>0.6739243131156147</v>
+        <v>0.006739243131156147</v>
       </c>
       <c r="C27">
-        <v>-0.07557448416478652</v>
+        <v>-0.0007557448416478652</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -4002,10 +4002,10 @@
         <v>45373</v>
       </c>
       <c r="B28">
-        <v>-0.6043817678166752</v>
+        <v>-0.006043817678166752</v>
       </c>
       <c r="C28">
-        <v>-0.8832778033536437</v>
+        <v>-0.008832778033536437</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -4016,10 +4016,10 @@
         <v>45372</v>
       </c>
       <c r="B29">
-        <v>-0.7600709399543937</v>
+        <v>-0.007600709399543937</v>
       </c>
       <c r="C29">
-        <v>-0.7481122942884832</v>
+        <v>-0.007481122942884832</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -4030,10 +4030,10 @@
         <v>45371</v>
       </c>
       <c r="B30">
-        <v>-1.531784528976265</v>
+        <v>-0.01531784528976265</v>
       </c>
       <c r="C30">
-        <v>1.251480055516785</v>
+        <v>0.01251480055516785</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -4044,10 +4044,10 @@
         <v>45370</v>
       </c>
       <c r="B31">
-        <v>-0.1814882032667886</v>
+        <v>-0.001814882032667886</v>
       </c>
       <c r="C31">
-        <v>0.4529199552593788</v>
+        <v>0.004529199552593788</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -4058,10 +4058,10 @@
         <v>45369</v>
       </c>
       <c r="B32">
-        <v>-1.948051948051943</v>
+        <v>-0.01948051948051943</v>
       </c>
       <c r="C32">
-        <v>0.1672689400514349</v>
+        <v>0.001672689400514349</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-0.7424230558383593</v>
+        <v>-0.007424230558383593</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -4086,10 +4086,10 @@
         <v>45365</v>
       </c>
       <c r="B34">
-        <v>-0.5562913907284806</v>
+        <v>-0.005562913907284806</v>
       </c>
       <c r="C34">
-        <v>-0.2468634282768001</v>
+        <v>-0.002468634282768001</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -4100,10 +4100,10 @@
         <v>45364</v>
       </c>
       <c r="B35">
-        <v>0.6126798082045859</v>
+        <v>0.006126798082045859</v>
       </c>
       <c r="C35">
-        <v>0.2647491932199042</v>
+        <v>0.002647491932199042</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -4114,10 +4114,10 @@
         <v>45363</v>
       </c>
       <c r="B36">
-        <v>-1.085517606566067</v>
+        <v>-0.01085517606566067</v>
       </c>
       <c r="C36">
-        <v>1.224192064951946</v>
+        <v>0.01224192064951946</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -4128,10 +4128,10 @@
         <v>45362</v>
       </c>
       <c r="B37">
-        <v>-1.204496788008569</v>
+        <v>-0.01204496788008569</v>
       </c>
       <c r="C37">
-        <v>-0.7452526540280613</v>
+        <v>-0.007452526540280613</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -4142,10 +4142,10 @@
         <v>45359</v>
       </c>
       <c r="B38">
-        <v>-0.6502302898943269</v>
+        <v>-0.006502302898943269</v>
       </c>
       <c r="C38">
-        <v>-0.9887798036465667</v>
+        <v>-0.009887798036465667</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -4156,10 +4156,10 @@
         <v>45358</v>
       </c>
       <c r="B39">
-        <v>-0.05454049631852254</v>
+        <v>-0.0005454049631852254</v>
       </c>
       <c r="C39">
-        <v>-0.4267204593063845</v>
+        <v>-0.004267204593063845</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -4170,10 +4170,10 @@
         <v>45357</v>
       </c>
       <c r="B40">
-        <v>0.6275579809004173</v>
+        <v>0.006275579809004173</v>
       </c>
       <c r="C40">
-        <v>0.6182766319536626</v>
+        <v>0.006182766319536626</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -4184,10 +4184,10 @@
         <v>45356</v>
       </c>
       <c r="B41">
-        <v>0.8134490238611569</v>
+        <v>0.008134490238611569</v>
       </c>
       <c r="C41">
-        <v>-0.1893393381694031</v>
+        <v>-0.001893393381694031</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -4198,10 +4198,10 @@
         <v>45355</v>
       </c>
       <c r="B42">
-        <v>-0.779989241527701</v>
+        <v>-0.00779989241527701</v>
       </c>
       <c r="C42">
-        <v>-0.6494813438612801</v>
+        <v>-0.006494813438612801</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -4212,10 +4212,10 @@
         <v>45352</v>
       </c>
       <c r="B43">
-        <v>0.4066142586066634</v>
+        <v>0.004066142586066634</v>
       </c>
       <c r="C43">
-        <v>0.1240117811192043</v>
+        <v>0.001240117811192043</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -4226,10 +4226,10 @@
         <v>45351</v>
       </c>
       <c r="B44">
-        <v>-1.619870410367175</v>
+        <v>-0.01619870410367175</v>
       </c>
       <c r="C44">
-        <v>-0.8720371864315624</v>
+        <v>-0.008720371864315624</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -4240,10 +4240,10 @@
         <v>45350</v>
       </c>
       <c r="B45">
-        <v>0.6037321624588365</v>
+        <v>0.006037321624588365</v>
       </c>
       <c r="C45">
-        <v>-1.164865706323226</v>
+        <v>-0.01164865706323226</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -4254,10 +4254,10 @@
         <v>45349</v>
       </c>
       <c r="B46">
-        <v>0.1363884342607813</v>
+        <v>0.001363884342607813</v>
       </c>
       <c r="C46">
-        <v>1.604826825297634</v>
+        <v>0.01604826825297634</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -4268,10 +4268,10 @@
         <v>45348</v>
       </c>
       <c r="B47">
-        <v>-1.03514028874967</v>
+        <v>-0.0103514028874967</v>
       </c>
       <c r="C47">
-        <v>0.1468099738060058</v>
+        <v>0.001468099738060058</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -4282,10 +4282,10 @@
         <v>45345</v>
       </c>
       <c r="B48">
-        <v>-2.449766033581069</v>
+        <v>-0.02449766033581069</v>
       </c>
       <c r="C48">
-        <v>-0.6311376601838115</v>
+        <v>-0.006311376601838115</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -4296,10 +4296,10 @@
         <v>45344</v>
       </c>
       <c r="B49">
-        <v>-1.410835214446948</v>
+        <v>-0.01410835214446948</v>
       </c>
       <c r="C49">
-        <v>0.1607296665436131</v>
+        <v>0.001607296665436131</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -4310,10 +4310,10 @@
         <v>45343</v>
       </c>
       <c r="B50">
-        <v>3.262736119061249</v>
+        <v>0.03262736119061249</v>
       </c>
       <c r="C50">
-        <v>0.08928846331475171</v>
+        <v>0.0008928846331475171</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -4324,10 +4324,10 @@
         <v>45342</v>
       </c>
       <c r="B51">
-        <v>-6.430155210643019</v>
+        <v>-0.06430155210643018</v>
       </c>
       <c r="C51">
-        <v>0.6819802225735527</v>
+        <v>0.006819802225735527</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -4338,10 +4338,10 @@
         <v>45341</v>
       </c>
       <c r="B52">
-        <v>-2.28080568720378</v>
+        <v>-0.0228080568720378</v>
       </c>
       <c r="C52">
-        <v>0.2408215900439714</v>
+        <v>0.002408215900439714</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -4352,10 +4352,10 @@
         <v>45338</v>
       </c>
       <c r="B53">
-        <v>-0.2728099424068042</v>
+        <v>-0.002728099424068042</v>
       </c>
       <c r="C53">
-        <v>0.7214171700416161</v>
+        <v>0.007214171700416161</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -4366,10 +4366,10 @@
         <v>45337</v>
       </c>
       <c r="B54">
-        <v>-0.5775075987841882</v>
+        <v>-0.005775075987841882</v>
       </c>
       <c r="C54">
-        <v>0.6188099324505147</v>
+        <v>0.006188099324505147</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -4380,10 +4380,10 @@
         <v>45336</v>
       </c>
       <c r="B55">
-        <v>0.9782940996637013</v>
+        <v>0.009782940996637013</v>
       </c>
       <c r="C55">
-        <v>-0.7873400715479706</v>
+        <v>-0.007873400715479706</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -4394,10 +4394,10 @@
         <v>45331</v>
       </c>
       <c r="B56">
-        <v>-0.4844081138359213</v>
+        <v>-0.004844081138359213</v>
       </c>
       <c r="C56">
-        <v>-0.1489662057293506</v>
+        <v>-0.001489662057293506</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -4408,10 +4408,10 @@
         <v>45330</v>
       </c>
       <c r="B57">
-        <v>1.308183754183134</v>
+        <v>0.01308183754183134</v>
       </c>
       <c r="C57">
-        <v>-1.073236219986418</v>
+        <v>-0.01073236219986418</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -4422,10 +4422,10 @@
         <v>45329</v>
       </c>
       <c r="B58">
-        <v>-0.5105105105104979</v>
+        <v>-0.005105105105104979</v>
       </c>
       <c r="C58">
-        <v>-0.6195558827137737</v>
+        <v>-0.006195558827137737</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -4436,10 +4436,10 @@
         <v>45328</v>
       </c>
       <c r="B59">
-        <v>-1.177180802897682</v>
+        <v>-0.01177180802897682</v>
       </c>
       <c r="C59">
-        <v>2.212503820742517</v>
+        <v>0.02212503820742517</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -4450,10 +4450,10 @@
         <v>45327</v>
       </c>
       <c r="B60">
-        <v>0.06108735491752171</v>
+        <v>0.0006108735491752171</v>
       </c>
       <c r="C60">
-        <v>0.3231589375854993</v>
+        <v>0.003231589375854993</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -4464,10 +4464,10 @@
         <v>45324</v>
       </c>
       <c r="B61">
-        <v>-2.014652014652007</v>
+        <v>-0.02014652014652007</v>
       </c>
       <c r="C61">
-        <v>-1.011044434585662</v>
+        <v>-0.01011044434585662</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -4478,10 +4478,10 @@
         <v>45323</v>
       </c>
       <c r="B62">
-        <v>0.1246105919002982</v>
+        <v>0.001246105919002982</v>
       </c>
       <c r="C62">
-        <v>0.570636858914142</v>
+        <v>0.00570636858914142</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -4492,10 +4492,10 @@
         <v>45322</v>
       </c>
       <c r="B63">
-        <v>-0.8711885500933492</v>
+        <v>-0.008711885500933492</v>
       </c>
       <c r="C63">
-        <v>0.2747209619943236</v>
+        <v>0.002747209619943236</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -4506,10 +4506,10 @@
         <v>45321</v>
       </c>
       <c r="B64">
-        <v>2.008788449466414</v>
+        <v>0.02008788449466414</v>
       </c>
       <c r="C64">
-        <v>-0.8567893356575373</v>
+        <v>-0.008567893356575373</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -4520,10 +4520,10 @@
         <v>45320</v>
       </c>
       <c r="B65">
-        <v>0.7692307692307665</v>
+        <v>0.007692307692307665</v>
       </c>
       <c r="C65">
-        <v>-0.3597819597261354</v>
+        <v>-0.003597819597261354</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
@@ -4534,10 +4534,10 @@
         <v>45317</v>
       </c>
       <c r="B66">
-        <v>-0.2137404580152658</v>
+        <v>-0.002137404580152658</v>
       </c>
       <c r="C66">
-        <v>0.6226154530346584</v>
+        <v>0.006226154530346584</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
@@ -4548,10 +4548,10 @@
         <v>45316</v>
       </c>
       <c r="B67">
-        <v>0.2141982864137137</v>
+        <v>0.002141982864137137</v>
       </c>
       <c r="C67">
-        <v>0.2761782562433535</v>
+        <v>0.002761782562433535</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -4562,10 +4562,10 @@
         <v>45315</v>
       </c>
       <c r="B68">
-        <v>0.6717557251908257</v>
+        <v>0.006717557251908257</v>
       </c>
       <c r="C68">
-        <v>-0.3485026858875861</v>
+        <v>-0.003485026858875861</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -4576,10 +4576,10 @@
         <v>45314</v>
       </c>
       <c r="B69">
-        <v>0.9099181073703555</v>
+        <v>0.009099181073703555</v>
       </c>
       <c r="C69">
-        <v>1.311985592644671</v>
+        <v>0.01311985592644671</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
@@ -4590,10 +4590,10 @@
         <v>45313</v>
       </c>
       <c r="B70">
-        <v>-1.172227231740308</v>
+        <v>-0.01172227231740308</v>
       </c>
       <c r="C70">
-        <v>-0.8101162681375174</v>
+        <v>-0.008101162681375174</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
@@ -4604,10 +4604,10 @@
         <v>45310</v>
       </c>
       <c r="B71">
-        <v>0.3041362530413538</v>
+        <v>0.003041362530413538</v>
       </c>
       <c r="C71">
-        <v>0.2513431147695533</v>
+        <v>0.002513431147695533</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
@@ -4618,10 +4618,10 @@
         <v>45309</v>
       </c>
       <c r="B72">
-        <v>-1.000606428138262</v>
+        <v>-0.01000606428138262</v>
       </c>
       <c r="C72">
-        <v>-0.9399022750614661</v>
+        <v>-0.009399022750614661</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
@@ -4632,10 +4632,10 @@
         <v>45308</v>
       </c>
       <c r="B73">
-        <v>0.7656967840734996</v>
+        <v>0.007656967840734996</v>
       </c>
       <c r="C73">
-        <v>-0.5955419431682873</v>
+        <v>-0.005955419431682873</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
@@ -4646,10 +4646,10 @@
         <v>45307</v>
       </c>
       <c r="B74">
-        <v>0.6382978723404209</v>
+        <v>0.006382978723404209</v>
       </c>
       <c r="C74">
-        <v>-1.693265714220538</v>
+        <v>-0.01693265714220538</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
@@ -4660,10 +4660,10 @@
         <v>45306</v>
       </c>
       <c r="B75">
-        <v>2.114164904862581</v>
+        <v>0.02114164904862581</v>
       </c>
       <c r="C75">
-        <v>0.4069075029773828</v>
+        <v>0.004069075029773828</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
@@ -4674,10 +4674,10 @@
         <v>45303</v>
       </c>
       <c r="B76">
-        <v>1.005619639159994</v>
+        <v>0.01005619639159994</v>
       </c>
       <c r="C76">
-        <v>0.259473857434811</v>
+        <v>0.00259473857434811</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
@@ -4688,10 +4688,10 @@
         <v>45302</v>
       </c>
       <c r="B77">
-        <v>0.4392386530014614</v>
+        <v>0.004392386530014614</v>
       </c>
       <c r="C77">
-        <v>-0.146742993404203</v>
+        <v>-0.00146742993404203</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
@@ -4702,10 +4702,10 @@
         <v>45301</v>
       </c>
       <c r="B78">
-        <v>1.428571428571423</v>
+        <v>0.01428571428571423</v>
       </c>
       <c r="C78">
-        <v>-0.4610223131756519</v>
+        <v>-0.004610223131756519</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
@@ -4716,10 +4716,10 @@
         <v>45300</v>
       </c>
       <c r="B79">
-        <v>-0.4024144869215318</v>
+        <v>-0.004024144869215318</v>
       </c>
       <c r="C79">
-        <v>-0.7400303563472654</v>
+        <v>-0.007400303563472654</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
@@ -4730,10 +4730,10 @@
         <v>45299</v>
       </c>
       <c r="B80">
-        <v>2.51082251082253</v>
+        <v>0.0251082251082253</v>
       </c>
       <c r="C80">
-        <v>0.3060072866091446</v>
+        <v>0.003060072866091446</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
@@ -4744,10 +4744,10 @@
         <v>45296</v>
       </c>
       <c r="B81">
-        <v>-0.2533783783783883</v>
+        <v>-0.002533783783783883</v>
       </c>
       <c r="C81">
-        <v>0.6073491533689968</v>
+        <v>0.006073491533689968</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
@@ -4758,10 +4758,10 @@
         <v>45295</v>
       </c>
       <c r="B82">
-        <v>1.100762066045724</v>
+        <v>0.01100762066045724</v>
       </c>
       <c r="C82">
-        <v>-1.210533447761863</v>
+        <v>-0.01210533447761863</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
@@ -4772,10 +4772,10 @@
         <v>45294</v>
       </c>
       <c r="B83">
-        <v>1.340033500837512</v>
+        <v>0.01340033500837512</v>
       </c>
       <c r="C83">
-        <v>0.1032427259094026</v>
+        <v>0.001032427259094026</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
@@ -4786,10 +4786,10 @@
         <v>45293</v>
       </c>
       <c r="B84">
-        <v>-0.771349862258941</v>
+        <v>-0.00771349862258941</v>
       </c>
       <c r="C84">
-        <v>-1.108916793978465</v>
+        <v>-0.01108916793978465</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
@@ -4800,10 +4800,10 @@
         <v>45288</v>
       </c>
       <c r="B85">
-        <v>0.943920044419766</v>
+        <v>0.00943920044419766</v>
       </c>
       <c r="C85">
-        <v>-0.006706708198578326</v>
+        <v>-6.706708198578326E-05</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -4814,10 +4814,10 @@
         <v>45287</v>
       </c>
       <c r="B86">
-        <v>-0.1925192519251939</v>
+        <v>-0.001925192519251939</v>
       </c>
       <c r="C86">
-        <v>0.4950087244351531</v>
+        <v>0.004950087244351531</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -4828,10 +4828,10 @@
         <v>45286</v>
       </c>
       <c r="B87">
-        <v>-0.3306696059520497</v>
+        <v>-0.003306696059520497</v>
       </c>
       <c r="C87">
-        <v>0.5875573433368642</v>
+        <v>0.005875573433368642</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
@@ -4842,10 +4842,10 @@
         <v>45282</v>
       </c>
       <c r="B88">
-        <v>-0.5529444290848895</v>
+        <v>-0.005529444290848895</v>
       </c>
       <c r="C88">
-        <v>0.431980148583011</v>
+        <v>0.00431980148583011</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -4856,10 +4856,10 @@
         <v>45281</v>
       </c>
       <c r="B89">
-        <v>-0.3336113427856446</v>
+        <v>-0.003336113427856446</v>
       </c>
       <c r="C89">
-        <v>1.053484602917343</v>
+        <v>0.01053484602917343</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -4870,10 +4870,10 @@
         <v>45280</v>
       </c>
       <c r="B90">
-        <v>-0.6415620641562203</v>
+        <v>-0.006415620641562203</v>
       </c>
       <c r="C90">
-        <v>-0.7940781639881433</v>
+        <v>-0.007940781639881433</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -4884,10 +4884,10 @@
         <v>45279</v>
       </c>
       <c r="B91">
-        <v>0.7299270072992803</v>
+        <v>0.007299270072992803</v>
       </c>
       <c r="C91">
-        <v>0.5851209911202027</v>
+        <v>0.005851209911202027</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -4898,10 +4898,10 @@
         <v>45278</v>
       </c>
       <c r="B92">
-        <v>-1.05908584169454</v>
+        <v>-0.0105908584169454</v>
       </c>
       <c r="C92">
-        <v>0.6812752982019665</v>
+        <v>0.006812752982019665</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -4912,10 +4912,10 @@
         <v>45275</v>
       </c>
       <c r="B93">
-        <v>-0.2253521126760472</v>
+        <v>-0.002253521126760472</v>
       </c>
       <c r="C93">
-        <v>-0.4929609758334452</v>
+        <v>-0.004929609758334452</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -4926,10 +4926,10 @@
         <v>45274</v>
       </c>
       <c r="B94">
-        <v>0.7622811970637855</v>
+        <v>0.007622811970637855</v>
       </c>
       <c r="C94">
-        <v>1.063607924921794</v>
+        <v>0.01063607924921794</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
@@ -4940,10 +4940,10 @@
         <v>45273</v>
       </c>
       <c r="B95">
-        <v>-0.6724572709442267</v>
+        <v>-0.006724572709442267</v>
       </c>
       <c r="C95">
-        <v>2.422410860501722</v>
+        <v>0.02422410860501722</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -4954,10 +4954,10 @@
         <v>45272</v>
       </c>
       <c r="B96">
-        <v>-2.84908321579691</v>
+        <v>-0.0284908321579691</v>
       </c>
       <c r="C96">
-        <v>-0.4042043556367947</v>
+        <v>-0.004042043556367947</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -4968,10 +4968,10 @@
         <v>45271</v>
       </c>
       <c r="B97">
-        <v>-0.464576074332157</v>
+        <v>-0.00464576074332157</v>
       </c>
       <c r="C97">
-        <v>-0.1400538184336053</v>
+        <v>-0.001400538184336053</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -4982,10 +4982,10 @@
         <v>45268</v>
       </c>
       <c r="B98">
-        <v>-0.6417736289381581</v>
+        <v>-0.006417736289381581</v>
       </c>
       <c r="C98">
-        <v>0.8602491865725037</v>
+        <v>0.008602491865725037</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -4996,10 +4996,10 @@
         <v>45267</v>
       </c>
       <c r="B99">
-        <v>2.055196711685259</v>
+        <v>0.02055196711685259</v>
       </c>
       <c r="C99">
-        <v>0.3080646060036774</v>
+        <v>0.003080646060036774</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
@@ -5010,10 +5010,10 @@
         <v>45266</v>
       </c>
       <c r="B100">
-        <v>0.08630609896433938</v>
+        <v>0.0008630609896433938</v>
       </c>
       <c r="C100">
-        <v>-1.008644397689573</v>
+        <v>-0.01008644397689573</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -5024,10 +5024,10 @@
         <v>45265</v>
       </c>
       <c r="B101">
-        <v>-0.2586950273066879</v>
+        <v>-0.002586950273066879</v>
       </c>
       <c r="C101">
-        <v>0.07886248748059099</v>
+        <v>0.0007886248748059099</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -5038,10 +5038,10 @@
         <v>45264</v>
       </c>
       <c r="B102">
-        <v>-1.527377521613837</v>
+        <v>-0.01527377521613837</v>
       </c>
       <c r="C102">
-        <v>-1.014808396368549</v>
+        <v>-0.01014808396368549</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -5052,10 +5052,10 @@
         <v>45261</v>
       </c>
       <c r="B103">
-        <v>0.05853087503657761</v>
+        <v>0.0005853087503657761</v>
       </c>
       <c r="C103">
-        <v>0.6062938326095058</v>
+        <v>0.006062938326095058</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -5066,10 +5066,10 @@
         <v>45260</v>
       </c>
       <c r="B104">
-        <v>-1.696402456858725</v>
+        <v>-0.01696402456858725</v>
       </c>
       <c r="C104">
-        <v>0.975408601042016</v>
+        <v>0.00975408601042016</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -5080,10 +5080,10 @@
         <v>45259</v>
       </c>
       <c r="B105">
-        <v>-0.1785182981255629</v>
+        <v>-0.001785182981255629</v>
       </c>
       <c r="C105">
-        <v>-0.3453508037111419</v>
+        <v>-0.003453508037111419</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -5094,10 +5094,10 @@
         <v>45258</v>
       </c>
       <c r="B106">
-        <v>0.71535022354694</v>
+        <v>0.0071535022354694</v>
       </c>
       <c r="C106">
-        <v>0.6802829340483596</v>
+        <v>0.006802829340483596</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -5108,10 +5108,10 @@
         <v>45257</v>
       </c>
       <c r="B107">
-        <v>-0.6806747558449122</v>
+        <v>-0.006806747558449122</v>
       </c>
       <c r="C107">
-        <v>0.1123130107852255</v>
+        <v>0.001123130107852255</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -5122,10 +5122,10 @@
         <v>45254</v>
       </c>
       <c r="B108">
-        <v>-1.2216924910608</v>
+        <v>-0.012216924910608</v>
       </c>
       <c r="C108">
-        <v>-0.8169005182657063</v>
+        <v>-0.008169005182657063</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -5136,10 +5136,10 @@
         <v>45253</v>
       </c>
       <c r="B109">
-        <v>0.9954751131221684</v>
+        <v>0.009954751131221684</v>
       </c>
       <c r="C109">
-        <v>0.4292458444083103</v>
+        <v>0.004292458444083103</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -5150,10 +5150,10 @@
         <v>45252</v>
       </c>
       <c r="B110">
-        <v>0.1194743130227272</v>
+        <v>0.001194743130227272</v>
       </c>
       <c r="C110">
-        <v>0.3407453406259142</v>
+        <v>0.003407453406259142</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -5164,10 +5164,10 @@
         <v>45251</v>
       </c>
       <c r="B111">
-        <v>-1.282816229116945</v>
+        <v>-0.01282816229116945</v>
       </c>
       <c r="C111">
-        <v>-0.3870097942027861</v>
+        <v>-0.003870097942027861</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
@@ -5178,10 +5178,10 @@
         <v>45250</v>
       </c>
       <c r="B112">
-        <v>-0.543970988213982</v>
+        <v>-0.00543970988213982</v>
       </c>
       <c r="C112">
-        <v>0.8259903088068343</v>
+        <v>0.008259903088068343</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -5192,10 +5192,10 @@
         <v>45247</v>
       </c>
       <c r="B113">
-        <v>-0.6381039197812077</v>
+        <v>-0.006381039197812077</v>
       </c>
       <c r="C113">
-        <v>0.3901232982275848</v>
+        <v>0.003901232982275848</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -5206,10 +5206,10 @@
         <v>45246</v>
       </c>
       <c r="B114">
-        <v>0.6422018348623659</v>
+        <v>0.006422018348623659</v>
       </c>
       <c r="C114">
-        <v>1.011935651271401</v>
+        <v>0.01011935651271401</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -5220,10 +5220,10 @@
         <v>45244</v>
       </c>
       <c r="B115">
-        <v>-0.06077180188391873</v>
+        <v>-0.0006077180188391873</v>
       </c>
       <c r="C115">
-        <v>2.452316076294281</v>
+        <v>0.02452316076294281</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -5234,10 +5234,10 @@
         <v>45243</v>
       </c>
       <c r="B116">
-        <v>-2.189115232593486</v>
+        <v>-0.02189115232593486</v>
       </c>
       <c r="C116">
-        <v>-0.2155243874133794</v>
+        <v>-0.002155243874133794</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -5248,10 +5248,10 @@
         <v>45240</v>
       </c>
       <c r="B117">
-        <v>1.367733913584068</v>
+        <v>0.01367733913584068</v>
       </c>
       <c r="C117">
-        <v>1.364568278829026</v>
+        <v>0.01364568278829026</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -5262,10 +5262,10 @@
         <v>45239</v>
       </c>
       <c r="B118">
-        <v>-2.299908003679851</v>
+        <v>-0.02299908003679851</v>
       </c>
       <c r="C118">
-        <v>-0.07304847227936895</v>
+        <v>-0.0007304847227936895</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
@@ -5276,10 +5276,10 @@
         <v>45238</v>
       </c>
       <c r="B119">
-        <v>0.1255492780916523</v>
+        <v>0.001255492780916523</v>
       </c>
       <c r="C119">
-        <v>-0.1416976892376853</v>
+        <v>-0.001416976892376853</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -5290,10 +5290,10 @@
         <v>45237</v>
       </c>
       <c r="B120">
-        <v>0.7836990595611271</v>
+        <v>0.007836990595611271</v>
       </c>
       <c r="C120">
-        <v>0.6591440411184424</v>
+        <v>0.006591440411184424</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -5304,10 +5304,10 @@
         <v>45236</v>
       </c>
       <c r="B121">
-        <v>1.555209953343706</v>
+        <v>0.01555209953343706</v>
       </c>
       <c r="C121">
-        <v>0.2767433987813206</v>
+        <v>0.002767433987813206</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -5318,10 +5318,10 @@
         <v>45233</v>
       </c>
       <c r="B122">
-        <v>0.9494640122511555</v>
+        <v>0.009494640122511555</v>
       </c>
       <c r="C122">
-        <v>2.700494554683486</v>
+        <v>0.02700494554683486</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
@@ -5332,10 +5332,10 @@
         <v>45231</v>
       </c>
       <c r="B123">
-        <v>-1.334951456310673</v>
+        <v>-0.01334951456310673</v>
       </c>
       <c r="C123">
-        <v>1.68723043201584</v>
+        <v>0.0168723043201584</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
@@ -5346,10 +5346,10 @@
         <v>45230</v>
       </c>
       <c r="B124">
-        <v>-0.2152521525215279</v>
+        <v>-0.002152521525215279</v>
       </c>
       <c r="C124">
-        <v>0.5438453062240001</v>
+        <v>0.005438453062240001</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -5360,10 +5360,10 @@
         <v>45229</v>
       </c>
       <c r="B125">
-        <v>-2.157164869029282</v>
+        <v>-0.02157164869029282</v>
       </c>
       <c r="C125">
-        <v>-0.6787230474576522</v>
+        <v>-0.006787230474576522</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -5374,10 +5374,10 @@
         <v>45226</v>
       </c>
       <c r="B126">
-        <v>-2.047244094488188</v>
+        <v>-0.02047244094488188</v>
       </c>
       <c r="C126">
-        <v>-1.285971928173768</v>
+        <v>-0.01285971928173768</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -5388,10 +5388,10 @@
         <v>45225</v>
       </c>
       <c r="B127">
-        <v>3.247588424437287</v>
+        <v>0.03247588424437287</v>
       </c>
       <c r="C127">
-        <v>1.72560489231588</v>
+        <v>0.0172560489231588</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -5402,10 +5402,10 @@
         <v>45224</v>
       </c>
       <c r="B128">
-        <v>-3.643724696356265</v>
+        <v>-0.03643724696356265</v>
       </c>
       <c r="C128">
-        <v>-0.8192542325205276</v>
+        <v>-0.008192542325205276</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -5416,10 +5416,10 @@
         <v>45223</v>
       </c>
       <c r="B129">
-        <v>11.24757595345831</v>
+        <v>0.1124757595345831</v>
       </c>
       <c r="C129">
-        <v>0.8662499445848404</v>
+        <v>0.008662499445848404</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -5430,10 +5430,10 @@
         <v>45222</v>
       </c>
       <c r="B130">
-        <v>-3.166763509587456</v>
+        <v>-0.03166763509587456</v>
       </c>
       <c r="C130">
-        <v>-0.326985108921396</v>
+        <v>-0.00326985108921396</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -5444,10 +5444,10 @@
         <v>45219</v>
       </c>
       <c r="B131">
-        <v>-0.2700270027002571</v>
+        <v>-0.002700270027002571</v>
       </c>
       <c r="C131">
-        <v>-0.7447107119048502</v>
+        <v>-0.007447107119048502</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -5458,10 +5458,10 @@
         <v>45218</v>
       </c>
       <c r="B132">
-        <v>0.3910950661853096</v>
+        <v>0.003910950661853096</v>
       </c>
       <c r="C132">
-        <v>-0.04909696650885476</v>
+        <v>-0.0004909696650885476</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -5472,10 +5472,10 @@
         <v>45217</v>
       </c>
       <c r="B133">
-        <v>1.018879232843872</v>
+        <v>0.01018879232843872</v>
       </c>
       <c r="C133">
-        <v>-1.594367946992448</v>
+        <v>-0.01594367946992448</v>
       </c>
       <c r="D133" t="s">
         <v>9</v>
@@ -5486,10 +5486,10 @@
         <v>45216</v>
       </c>
       <c r="B134">
-        <v>-0.02966478789676597</v>
+        <v>-0.0002966478789676597</v>
       </c>
       <c r="C134">
-        <v>-0.5371822815658955</v>
+        <v>-0.005371822815658955</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -5500,10 +5500,10 @@
         <v>45215</v>
       </c>
       <c r="B135">
-        <v>1.068249258160225</v>
+        <v>0.01068249258160225</v>
       </c>
       <c r="C135">
-        <v>0.6738428045683031</v>
+        <v>0.006738428045683031</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
@@ -5514,10 +5514,10 @@
         <v>45212</v>
       </c>
       <c r="B136">
-        <v>-0.2935995302407512</v>
+        <v>-0.002935995302407512</v>
       </c>
       <c r="C136">
-        <v>-1.108064006287857</v>
+        <v>-0.01108064006287857</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -5528,10 +5528,10 @@
         <v>45210</v>
       </c>
       <c r="B137">
-        <v>1.825677267373371</v>
+        <v>0.01825677267373371</v>
       </c>
       <c r="C137">
-        <v>0.2689807002064448</v>
+        <v>0.002689807002064448</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
@@ -5542,10 +5542,10 @@
         <v>45209</v>
       </c>
       <c r="B138">
-        <v>0.3470213996529914</v>
+        <v>0.003470213996529914</v>
       </c>
       <c r="C138">
-        <v>1.372920212581197</v>
+        <v>0.01372920212581197</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -5556,10 +5556,10 @@
         <v>45208</v>
       </c>
       <c r="B139">
-        <v>-1.268011527377533</v>
+        <v>-0.01268011527377533</v>
       </c>
       <c r="C139">
-        <v>0.8636244197249621</v>
+        <v>0.008636244197249621</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -5570,10 +5570,10 @@
         <v>45205</v>
       </c>
       <c r="B140">
-        <v>-0.1459427904261457</v>
+        <v>-0.001459427904261457</v>
       </c>
       <c r="C140">
-        <v>0.7821051516542443</v>
+        <v>0.007821051516542443</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -5584,10 +5584,10 @@
         <v>45204</v>
       </c>
       <c r="B141">
-        <v>0.5261619409529406</v>
+        <v>0.005261619409529406</v>
       </c>
       <c r="C141">
-        <v>-0.2843134665997726</v>
+        <v>-0.002843134665997726</v>
       </c>
       <c r="D141" t="s">
         <v>9</v>
@@ -5598,10 +5598,10 @@
         <v>45203</v>
       </c>
       <c r="B142">
-        <v>0.5234079674323988</v>
+        <v>0.005234079674323988</v>
       </c>
       <c r="C142">
-        <v>0.1657570601045766</v>
+        <v>0.001657570601045766</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -5612,10 +5612,10 @@
         <v>45202</v>
       </c>
       <c r="B143">
-        <v>0.02892681515764828</v>
+        <v>0.0002892681515764828</v>
       </c>
       <c r="C143">
-        <v>-1.423642194738262</v>
+        <v>-0.01423642194738262</v>
       </c>
       <c r="D143" t="s">
         <v>9</v>
@@ -5626,10 +5626,10 @@
         <v>45201</v>
       </c>
       <c r="B144">
-        <v>2.776171197223842</v>
+        <v>0.02776171197223842</v>
       </c>
       <c r="C144">
-        <v>-1.293698794663922</v>
+        <v>-0.01293698794663922</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>
@@ -5640,10 +5640,10 @@
         <v>45198</v>
       </c>
       <c r="B145">
-        <v>0.3376477208778761</v>
+        <v>0.003376477208778761</v>
       </c>
       <c r="C145">
-        <v>0.7206366487803706</v>
+        <v>0.007206366487803706</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -5654,10 +5654,10 @@
         <v>45197</v>
       </c>
       <c r="B146">
-        <v>0.3365114974761774</v>
+        <v>0.003365114974761774</v>
       </c>
       <c r="C146">
-        <v>1.228056364638275</v>
+        <v>0.01228056364638275</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -5668,10 +5668,10 @@
         <v>45196</v>
       </c>
       <c r="B147">
-        <v>-1.034097261039701</v>
+        <v>-0.01034097261039701</v>
       </c>
       <c r="C147">
-        <v>0.117345196290497</v>
+        <v>0.00117345196290497</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -5682,10 +5682,10 @@
         <v>45195</v>
       </c>
       <c r="B148">
-        <v>0.1694436599830595</v>
+        <v>0.001694436599830595</v>
       </c>
       <c r="C148">
-        <v>-1.494069441449208</v>
+        <v>-0.01494069441449208</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -5696,10 +5696,10 @@
         <v>45194</v>
       </c>
       <c r="B149">
-        <v>0.1409641950944618</v>
+        <v>0.001409641950944618</v>
       </c>
       <c r="C149">
-        <v>-0.07240817522778942</v>
+        <v>-0.0007240817522778942</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
@@ -5710,10 +5710,10 @@
         <v>45191</v>
       </c>
       <c r="B150">
-        <v>-4.42004504504504</v>
+        <v>-0.0442004504504504</v>
       </c>
       <c r="C150">
-        <v>-0.1170950105471635</v>
+        <v>-0.001170950105471635</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -5724,10 +5724,10 @@
         <v>45190</v>
       </c>
       <c r="B151">
-        <v>1.119293078055961</v>
+        <v>0.01119293078055961</v>
       </c>
       <c r="C151">
-        <v>-2.148363452546442</v>
+        <v>-0.02148363452546442</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -5738,10 +5738,10 @@
         <v>45189</v>
       </c>
       <c r="B152">
-        <v>2.330323332362383</v>
+        <v>0.02330323332362383</v>
       </c>
       <c r="C152">
-        <v>0.7204317499108992</v>
+        <v>0.007204317499108992</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -5752,10 +5752,10 @@
         <v>45188</v>
       </c>
       <c r="B153">
-        <v>0.5123825789923098</v>
+        <v>0.005123825789923098</v>
       </c>
       <c r="C153">
-        <v>-0.3736642770188037</v>
+        <v>-0.003736642770188037</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -5766,10 +5766,10 @@
         <v>45187</v>
       </c>
       <c r="B154">
-        <v>-0.5097706032285432</v>
+        <v>-0.005097706032285432</v>
       </c>
       <c r="C154">
-        <v>-0.3957628117684742</v>
+        <v>-0.003957628117684742</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -5780,10 +5780,10 @@
         <v>45184</v>
       </c>
       <c r="B155">
-        <v>0.8539709649871829</v>
+        <v>0.008539709649871829</v>
       </c>
       <c r="C155">
-        <v>-0.53102385419459</v>
+        <v>-0.0053102385419459</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -5794,10 +5794,10 @@
         <v>45183</v>
       </c>
       <c r="B156">
-        <v>-0.05644933672029895</v>
+        <v>-0.0005644933672029895</v>
       </c>
       <c r="C156">
-        <v>1.028973734091521</v>
+        <v>0.01028973734091521</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -5808,10 +5808,10 @@
         <v>45182</v>
       </c>
       <c r="B157">
-        <v>2.372211239762789</v>
+        <v>0.02372211239762789</v>
       </c>
       <c r="C157">
-        <v>0.176319001763181</v>
+        <v>0.00176319001763181</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -5822,10 +5822,10 @@
         <v>45181</v>
       </c>
       <c r="B158">
-        <v>-3.475862068965507</v>
+        <v>-0.03475862068965507</v>
       </c>
       <c r="C158">
-        <v>0.9282787060564734</v>
+        <v>0.009282787060564734</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -5836,10 +5836,10 @@
         <v>45180</v>
       </c>
       <c r="B159">
-        <v>-1.028865390111455</v>
+        <v>-0.01028865390111455</v>
       </c>
       <c r="C159">
-        <v>1.361511711602326</v>
+        <v>0.01361511711602326</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -5850,10 +5850,10 @@
         <v>45177</v>
       </c>
       <c r="B160">
-        <v>-2.00282087447109</v>
+        <v>-0.0200282087447109</v>
       </c>
       <c r="C160">
-        <v>-0.5793852653360299</v>
+        <v>-0.005793852653360299</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -5864,10 +5864,10 @@
         <v>45175</v>
       </c>
       <c r="B161">
-        <v>0.4317789291882423</v>
+        <v>0.004317789291882423</v>
       </c>
       <c r="C161">
-        <v>-1.14718190418559</v>
+        <v>-0.0114718190418559</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
@@ -5878,10 +5878,10 @@
         <v>45174</v>
       </c>
       <c r="B162">
-        <v>1.031814273430776</v>
+        <v>0.01031814273430776</v>
       </c>
       <c r="C162">
-        <v>-0.3786817460115333</v>
+        <v>-0.003786817460115333</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
@@ -5892,10 +5892,10 @@
         <v>45173</v>
       </c>
       <c r="B163">
-        <v>0.5957446808510625</v>
+        <v>0.005957446808510625</v>
       </c>
       <c r="C163">
-        <v>-0.09839430670184335</v>
+        <v>-0.0009839430670184335</v>
       </c>
       <c r="D163" t="s">
         <v>10</v>
@@ -5906,10 +5906,10 @@
         <v>45170</v>
       </c>
       <c r="B164">
-        <v>-1.836393989983298</v>
+        <v>-0.01836393989983298</v>
       </c>
       <c r="C164">
-        <v>1.858443780131669</v>
+        <v>0.01858443780131669</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
@@ -5920,10 +5920,10 @@
         <v>45169</v>
       </c>
       <c r="B165">
-        <v>-0.1700680272108901</v>
+        <v>-0.001700680272108901</v>
       </c>
       <c r="C165">
-        <v>-1.525503041647169</v>
+        <v>-0.01525503041647169</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
@@ -5934,10 +5934,10 @@
         <v>45168</v>
       </c>
       <c r="B166">
-        <v>1.164111300397508</v>
+        <v>0.01164111300397508</v>
       </c>
       <c r="C166">
-        <v>-0.7339279078409477</v>
+        <v>-0.007339279078409477</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5948,10 +5948,10 @@
         <v>45167</v>
       </c>
       <c r="B167">
-        <v>0.505192253718767</v>
+        <v>0.00505192253718767</v>
       </c>
       <c r="C167">
-        <v>1.095448297060297</v>
+        <v>0.01095448297060297</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -5962,10 +5962,10 @@
         <v>45166</v>
       </c>
       <c r="B168">
-        <v>0.3630270874057429</v>
+        <v>0.003630270874057429</v>
       </c>
       <c r="C168">
-        <v>1.108454120876745</v>
+        <v>0.01108454120876745</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -5976,10 +5976,10 @@
         <v>45163</v>
       </c>
       <c r="B169">
-        <v>-0.6956037840845863</v>
+        <v>-0.006956037840845863</v>
       </c>
       <c r="C169">
-        <v>-1.016013535453664</v>
+        <v>-0.01016013535453664</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -5990,10 +5990,10 @@
         <v>45162</v>
       </c>
       <c r="B170">
-        <v>-1.064724012328366</v>
+        <v>-0.01064724012328366</v>
       </c>
       <c r="C170">
-        <v>-0.9387565073856186</v>
+        <v>-0.009387565073856186</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -6004,10 +6004,10 @@
         <v>45161</v>
       </c>
       <c r="B171">
-        <v>1.331067686207876</v>
+        <v>0.01331067686207876</v>
       </c>
       <c r="C171">
-        <v>1.703743241847167</v>
+        <v>0.01703743241847167</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
@@ -6018,10 +6018,10 @@
         <v>45160</v>
       </c>
       <c r="B172">
-        <v>0.02794857462269373</v>
+        <v>0.0002794857462269373</v>
       </c>
       <c r="C172">
-        <v>1.50923279937778</v>
+        <v>0.0150923279937778</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
@@ -6032,10 +6032,10 @@
         <v>45159</v>
       </c>
       <c r="B173">
-        <v>-1.173512154233036</v>
+        <v>-0.01173512154233036</v>
       </c>
       <c r="C173">
-        <v>-0.8491538788136133</v>
+        <v>-0.008491538788136133</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
@@ -6046,10 +6046,10 @@
         <v>45156</v>
       </c>
       <c r="B174">
-        <v>0.6219960418433867</v>
+        <v>0.006219960418433867</v>
       </c>
       <c r="C174">
-        <v>0.371362474126391</v>
+        <v>0.00371362474126391</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -6060,10 +6060,10 @@
         <v>45155</v>
       </c>
       <c r="B175">
-        <v>1.798257937622916</v>
+        <v>0.01798257937622916</v>
       </c>
       <c r="C175">
-        <v>-0.5277181811890075</v>
+        <v>-0.005277181811890075</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
@@ -6074,10 +6074,10 @@
         <v>45154</v>
       </c>
       <c r="B176">
-        <v>1.876897598675131</v>
+        <v>0.01876897598675131</v>
       </c>
       <c r="C176">
-        <v>-0.498403215948906</v>
+        <v>-0.00498403215948906</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
@@ -6088,10 +6088,10 @@
         <v>45153</v>
       </c>
       <c r="B177">
-        <v>4.632890815497159</v>
+        <v>0.04632890815497159</v>
       </c>
       <c r="C177">
-        <v>-0.5470422052906376</v>
+        <v>-0.005470422052906376</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
@@ -6102,10 +6102,10 @@
         <v>45152</v>
       </c>
       <c r="B178">
-        <v>-0.1035732780942489</v>
+        <v>-0.001035732780942489</v>
       </c>
       <c r="C178">
-        <v>-1.062973785626564</v>
+        <v>-0.01062973785626564</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
@@ -6116,10 +6116,10 @@
         <v>45149</v>
       </c>
       <c r="B179">
-        <v>1.244167962674969</v>
+        <v>0.01244167962674969</v>
       </c>
       <c r="C179">
-        <v>-0.2408111533586776</v>
+        <v>-0.002408111533586776</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
@@ -6130,10 +6130,10 @@
         <v>45148</v>
       </c>
       <c r="B180">
-        <v>1.100870455709169</v>
+        <v>0.01100870455709169</v>
       </c>
       <c r="C180">
-        <v>-0.04982729353343318</v>
+        <v>-0.0004982729353343318</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
@@ -6144,10 +6144,10 @@
         <v>45147</v>
       </c>
       <c r="B181">
-        <v>1.342111927070144</v>
+        <v>0.01342111927070144</v>
       </c>
       <c r="C181">
-        <v>-0.5718364262322639</v>
+        <v>-0.005718364262322639</v>
       </c>
       <c r="D181" t="s">
         <v>11</v>
@@ -6158,10 +6158,10 @@
         <v>45146</v>
       </c>
       <c r="B182">
-        <v>-0.2748625687156614</v>
+        <v>-0.002748625687156614</v>
       </c>
       <c r="C182">
-        <v>-0.2429217624392743</v>
+        <v>-0.002429217624392743</v>
       </c>
       <c r="D182" t="s">
         <v>11</v>
@@ -6172,10 +6172,10 @@
         <v>45145</v>
       </c>
       <c r="B183">
-        <v>0.6514657980456251</v>
+        <v>0.006514657980456251</v>
       </c>
       <c r="C183">
-        <v>-0.1071058004485037</v>
+        <v>-0.001071058004485037</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
@@ -6186,10 +6186,10 @@
         <v>45142</v>
       </c>
       <c r="B184">
-        <v>-0.199153597211843</v>
+        <v>-0.00199153597211843</v>
       </c>
       <c r="C184">
-        <v>-0.893967790622463</v>
+        <v>-0.00893967790622463</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
@@ -6200,10 +6200,10 @@
         <v>45141</v>
       </c>
       <c r="B185">
-        <v>-1.022698927413335</v>
+        <v>-0.01022698927413335</v>
       </c>
       <c r="C185">
-        <v>-0.2258830538064971</v>
+        <v>-0.002258830538064971</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
@@ -6214,10 +6214,10 @@
         <v>45140</v>
       </c>
       <c r="B186">
-        <v>-0.9828629032258118</v>
+        <v>-0.009828629032258118</v>
       </c>
       <c r="C186">
-        <v>-0.3208300343098491</v>
+        <v>-0.003208300343098491</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
@@ -6228,10 +6228,10 @@
         <v>45139</v>
       </c>
       <c r="B187">
-        <v>-0.432680071264957</v>
+        <v>-0.00432680071264957</v>
       </c>
       <c r="C187">
-        <v>-0.5699384138490915</v>
+        <v>-0.005699384138490915</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
@@ -6242,10 +6242,10 @@
         <v>45138</v>
       </c>
       <c r="B188">
-        <v>0.1533742331288446</v>
+        <v>0.001533742331288446</v>
       </c>
       <c r="C188">
-        <v>1.461056520255943</v>
+        <v>0.01461056520255943</v>
       </c>
       <c r="D188" t="s">
         <v>12</v>
@@ -6256,10 +6256,10 @@
         <v>45135</v>
       </c>
       <c r="B189">
-        <v>0.9954058192955584</v>
+        <v>0.009954058192955584</v>
       </c>
       <c r="C189">
-        <v>0.1641803483623638</v>
+        <v>0.001641803483623638</v>
       </c>
       <c r="D189" t="s">
         <v>12</v>
@@ -6270,10 +6270,10 @@
         <v>45134</v>
       </c>
       <c r="B190">
-        <v>0.07581501137225999</v>
+        <v>0.0007581501137225999</v>
       </c>
       <c r="C190">
-        <v>-2.09693211488251</v>
+        <v>-0.0209693211488251</v>
       </c>
       <c r="D190" t="s">
         <v>12</v>
@@ -6284,10 +6284,10 @@
         <v>45133</v>
       </c>
       <c r="B191">
-        <v>0.328282828282811</v>
+        <v>0.00328282828282811</v>
       </c>
       <c r="C191">
-        <v>0.4524293488951558</v>
+        <v>0.004524293488951558</v>
       </c>
       <c r="D191" t="s">
         <v>12</v>
@@ -6298,10 +6298,10 @@
         <v>45132</v>
       </c>
       <c r="B192">
-        <v>0.05033979360684615</v>
+        <v>0.0005033979360684615</v>
       </c>
       <c r="C192">
-        <v>0.5488618944800683</v>
+        <v>0.005488618944800683</v>
       </c>
       <c r="D192" t="s">
         <v>12</v>
@@ -6312,10 +6312,10 @@
         <v>45131</v>
       </c>
       <c r="B193">
-        <v>2.566037735849069</v>
+        <v>0.02566037735849069</v>
       </c>
       <c r="C193">
-        <v>0.9358077476563142</v>
+        <v>0.009358077476563142</v>
       </c>
       <c r="D193" t="s">
         <v>12</v>
@@ -6326,10 +6326,10 @@
         <v>45128</v>
       </c>
       <c r="B194">
-        <v>-6.720627912680898</v>
+        <v>-0.06720627912680899</v>
       </c>
       <c r="C194">
-        <v>1.807203407772495</v>
+        <v>0.01807203407772495</v>
       </c>
       <c r="D194" t="s">
         <v>12</v>
@@ -6340,10 +6340,10 @@
         <v>45127</v>
       </c>
       <c r="B195">
-        <v>-1.893242177228505</v>
+        <v>-0.01893242177228505</v>
       </c>
       <c r="C195">
-        <v>0.4517149857084624</v>
+        <v>0.004517149857084624</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
@@ -6354,10 +6354,10 @@
         <v>45126</v>
       </c>
       <c r="B196">
-        <v>-0.6432591798445464</v>
+        <v>-0.006432591798445464</v>
       </c>
       <c r="C196">
-        <v>-0.2452457124430429</v>
+        <v>-0.002452457124430429</v>
       </c>
       <c r="D196" t="s">
         <v>12</v>
@@ -6368,10 +6368,10 @@
         <v>45125</v>
       </c>
       <c r="B197">
-        <v>-5.206366333962775</v>
+        <v>-0.05206366333962775</v>
       </c>
       <c r="C197">
-        <v>-0.3197455569747709</v>
+        <v>-0.003197455569747709</v>
       </c>
       <c r="D197" t="s">
         <v>12</v>
@@ -6382,10 +6382,10 @@
         <v>45124</v>
       </c>
       <c r="B198">
-        <v>-1.764371087080241</v>
+        <v>-0.01764371087080241</v>
       </c>
       <c r="C198">
-        <v>0.4315654441810812</v>
+        <v>0.004315654441810812</v>
       </c>
       <c r="D198" t="s">
         <v>12</v>
@@ -6396,10 +6396,10 @@
         <v>45121</v>
       </c>
       <c r="B199">
-        <v>1.969872537659323</v>
+        <v>0.01969872537659323</v>
       </c>
       <c r="C199">
-        <v>-1.302153206332168</v>
+        <v>-0.01302153206332168</v>
       </c>
       <c r="D199" t="s">
         <v>12</v>
@@ -6410,10 +6410,10 @@
         <v>45120</v>
       </c>
       <c r="B200">
-        <v>0.1704545454545237</v>
+        <v>0.001704545454545237</v>
       </c>
       <c r="C200">
-        <v>1.358081348902829</v>
+        <v>0.01358081348902829</v>
       </c>
       <c r="D200" t="s">
         <v>12</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>0.3804811465620173</v>
+        <v>0.003804811465620173</v>
       </c>
       <c r="D201" t="s">
         <v>12</v>
@@ -6438,10 +6438,10 @@
         <v>45118</v>
       </c>
       <c r="B202">
-        <v>-0.311968235961424</v>
+        <v>-0.00311968235961424</v>
       </c>
       <c r="C202">
-        <v>-0.6121653015889184</v>
+        <v>-0.006121653015889184</v>
       </c>
       <c r="D202" t="s">
         <v>12</v>
@@ -6452,10 +6452,10 @@
         <v>45117</v>
       </c>
       <c r="B203">
-        <v>0.9672830725462322</v>
+        <v>0.009672830725462322</v>
       </c>
       <c r="C203">
-        <v>-0.8040505307069901</v>
+        <v>-0.008040505307069901</v>
       </c>
       <c r="D203" t="s">
         <v>12</v>
@@ -6466,10 +6466,10 @@
         <v>45114</v>
       </c>
       <c r="B204">
-        <v>1.944209636517313</v>
+        <v>0.01944209636517313</v>
       </c>
       <c r="C204">
-        <v>1.253555430654196</v>
+        <v>0.01253555430654196</v>
       </c>
       <c r="D204" t="s">
         <v>12</v>
@@ -6480,10 +6480,10 @@
         <v>45113</v>
       </c>
       <c r="B205">
-        <v>-0.3040353786622374</v>
+        <v>-0.003040353786622374</v>
       </c>
       <c r="C205">
-        <v>-1.775840868597811</v>
+        <v>-0.01775840868597811</v>
       </c>
       <c r="D205" t="s">
         <v>12</v>
@@ -6494,10 +6494,10 @@
         <v>45112</v>
       </c>
       <c r="B206">
-        <v>1.663432215137228</v>
+        <v>0.01663432215137228</v>
       </c>
       <c r="C206">
-        <v>0.3972253014881355</v>
+        <v>0.003972253014881355</v>
       </c>
       <c r="D206" t="s">
         <v>12</v>
@@ -6508,10 +6508,10 @@
         <v>45111</v>
       </c>
       <c r="B207">
-        <v>-0.8181074447777603</v>
+        <v>-0.008181074447777603</v>
       </c>
       <c r="C207">
-        <v>-0.4988593918427764</v>
+        <v>-0.004988593918427764</v>
       </c>
       <c r="D207" t="s">
         <v>12</v>
@@ -6522,10 +6522,10 @@
         <v>45110</v>
       </c>
       <c r="B208">
-        <v>1.319769040417929</v>
+        <v>0.01319769040417929</v>
       </c>
       <c r="C208">
-        <v>1.343077561458927</v>
+        <v>0.01343077561458927</v>
       </c>
       <c r="D208" t="s">
         <v>12</v>
@@ -6536,10 +6536,10 @@
         <v>45107</v>
       </c>
       <c r="B209">
-        <v>0.1628222523744727</v>
+        <v>0.001628222523744727</v>
       </c>
       <c r="C209">
-        <v>-0.2500359004248942</v>
+        <v>-0.002500359004248942</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -6550,10 +6550,10 @@
         <v>45106</v>
       </c>
       <c r="B210">
-        <v>-2.411270658358156</v>
+        <v>-0.02411270658358156</v>
       </c>
       <c r="C210">
-        <v>1.458677933853836</v>
+        <v>0.01458677933853836</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
@@ -6564,10 +6564,10 @@
         <v>45105</v>
       </c>
       <c r="B211">
-        <v>-0.6940588561910044</v>
+        <v>-0.006940588561910044</v>
       </c>
       <c r="C211">
-        <v>-0.7164555023272068</v>
+        <v>-0.007164555023272068</v>
       </c>
       <c r="D211" t="s">
         <v>13</v>
@@ -6578,10 +6578,10 @@
         <v>45104</v>
       </c>
       <c r="B212">
-        <v>-0.2236511042773448</v>
+        <v>-0.002236511042773448</v>
       </c>
       <c r="C212">
-        <v>-0.6089155383405376</v>
+        <v>-0.006089155383405376</v>
       </c>
       <c r="D212" t="s">
         <v>13</v>
@@ -6592,10 +6592,10 @@
         <v>45103</v>
       </c>
       <c r="B213">
-        <v>-0.2801905295600871</v>
+        <v>-0.002801905295600871</v>
       </c>
       <c r="C213">
-        <v>-0.6169259604797528</v>
+        <v>-0.006169259604797528</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
@@ -6606,10 +6606,10 @@
         <v>45100</v>
       </c>
       <c r="B214">
-        <v>0.3933689238549976</v>
+        <v>0.003933689238549976</v>
       </c>
       <c r="C214">
-        <v>0.03615450586038627</v>
+        <v>0.0003615450586038627</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
@@ -6620,10 +6620,10 @@
         <v>45099</v>
       </c>
       <c r="B215">
-        <v>-0.5317660229498977</v>
+        <v>-0.005317660229498977</v>
       </c>
       <c r="C215">
-        <v>-1.234014283341633</v>
+        <v>-0.01234014283341633</v>
       </c>
       <c r="D215" t="s">
         <v>13</v>
@@ -6634,10 +6634,10 @@
         <v>45098</v>
       </c>
       <c r="B216">
-        <v>0.1125492402926254</v>
+        <v>0.001125492402926254</v>
       </c>
       <c r="C216">
-        <v>0.6671013693133387</v>
+        <v>0.006671013693133387</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
@@ -6648,10 +6648,10 @@
         <v>45097</v>
       </c>
       <c r="B217">
-        <v>1.377178189994388</v>
+        <v>0.01377178189994388</v>
       </c>
       <c r="C217">
-        <v>-0.1968996646031118</v>
+        <v>-0.001968996646031118</v>
       </c>
       <c r="D217" t="s">
         <v>13</v>
@@ -6662,10 +6662,10 @@
         <v>45096</v>
       </c>
       <c r="B218">
-        <v>1.968394787912398</v>
+        <v>0.01968394787912398</v>
       </c>
       <c r="C218">
-        <v>0.9262533892453462</v>
+        <v>0.009262533892453462</v>
       </c>
       <c r="D218" t="s">
         <v>13</v>
@@ -6676,10 +6676,10 @@
         <v>45093</v>
       </c>
       <c r="B219">
-        <v>0.4622077215878262</v>
+        <v>0.004622077215878262</v>
       </c>
       <c r="C219">
-        <v>-0.3883544006508921</v>
+        <v>-0.003883544006508921</v>
       </c>
       <c r="D219" t="s">
         <v>13</v>
@@ -6690,10 +6690,10 @@
         <v>45092</v>
       </c>
       <c r="B220">
-        <v>-0.02706359945874315</v>
+        <v>-0.0002706359945874315</v>
       </c>
       <c r="C220">
-        <v>0.1276570727897219</v>
+        <v>0.001276570727897219</v>
       </c>
       <c r="D220" t="s">
         <v>13</v>
@@ -6704,10 +6704,10 @@
         <v>45091</v>
       </c>
       <c r="B221">
-        <v>0.08121277747699107</v>
+        <v>0.0008121277747699107</v>
       </c>
       <c r="C221">
-        <v>1.992410679869461</v>
+        <v>0.01992410679869461</v>
       </c>
       <c r="D221" t="s">
         <v>13</v>
@@ -6718,10 +6718,10 @@
         <v>45090</v>
       </c>
       <c r="B222">
-        <v>-1.379496889369758</v>
+        <v>-0.01379496889369758</v>
       </c>
       <c r="C222">
-        <v>-0.5053862412217947</v>
+        <v>-0.005053862412217947</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
@@ -6732,10 +6732,10 @@
         <v>45089</v>
       </c>
       <c r="B223">
-        <v>1.069665386725172</v>
+        <v>0.01069665386725172</v>
       </c>
       <c r="C223">
-        <v>0.270896179252933</v>
+        <v>0.00270896179252933</v>
       </c>
       <c r="D223" t="s">
         <v>13</v>
@@ -6746,10 +6746,10 @@
         <v>45086</v>
       </c>
       <c r="B224">
-        <v>0.1356852103120643</v>
+        <v>0.001356852103120643</v>
       </c>
       <c r="C224">
-        <v>1.325678858409529</v>
+        <v>0.01325678858409529</v>
       </c>
       <c r="D224" t="s">
         <v>13</v>
@@ -6760,10 +6760,10 @@
         <v>45084</v>
       </c>
       <c r="B225">
-        <v>0.9214092140921393</v>
+        <v>0.009214092140921393</v>
       </c>
       <c r="C225">
-        <v>0.7660762586161773</v>
+        <v>0.007660762586161773</v>
       </c>
       <c r="D225" t="s">
         <v>13</v>
@@ -6774,10 +6774,10 @@
         <v>45083</v>
       </c>
       <c r="B226">
-        <v>0.1342642320085963</v>
+        <v>0.001342642320085963</v>
       </c>
       <c r="C226">
-        <v>1.69837438773337</v>
+        <v>0.0169837438773337</v>
       </c>
       <c r="D226" t="s">
         <v>13</v>
@@ -6788,10 +6788,10 @@
         <v>45082</v>
       </c>
       <c r="B227">
-        <v>-1.474926253687303</v>
+        <v>-0.01474926253687303</v>
       </c>
       <c r="C227">
-        <v>0.1226034577728852</v>
+        <v>0.001226034577728852</v>
       </c>
       <c r="D227" t="s">
         <v>13</v>
@@ -6802,10 +6802,10 @@
         <v>45079</v>
       </c>
       <c r="B228">
-        <v>0.1088731627653772</v>
+        <v>0.001088731627653772</v>
       </c>
       <c r="C228">
-        <v>1.802559580337348</v>
+        <v>0.01802559580337348</v>
       </c>
       <c r="D228" t="s">
         <v>13</v>
@@ -6816,10 +6816,10 @@
         <v>45078</v>
       </c>
       <c r="B229">
-        <v>-1.277868406742788</v>
+        <v>-0.01277868406742788</v>
       </c>
       <c r="C229">
-        <v>2.058429870309686</v>
+        <v>0.02058429870309686</v>
       </c>
       <c r="D229" t="s">
         <v>13</v>
@@ -6830,10 +6830,10 @@
         <v>45077</v>
       </c>
       <c r="B230">
-        <v>1.129165519140729</v>
+        <v>0.01129165519140729</v>
       </c>
       <c r="C230">
-        <v>-0.5799921077023318</v>
+        <v>-0.005799921077023318</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
@@ -6844,10 +6844,10 @@
         <v>45076</v>
       </c>
       <c r="B231">
-        <v>1.933551198257089</v>
+        <v>0.01933551198257089</v>
       </c>
       <c r="C231">
-        <v>-1.238070205650166</v>
+        <v>-0.01238070205650166</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
@@ -6858,10 +6858,10 @@
         <v>45075</v>
       </c>
       <c r="B232">
-        <v>1.41597648944698</v>
+        <v>0.0141597648944698</v>
       </c>
       <c r="C232">
-        <v>-0.5166537428092255</v>
+        <v>-0.005166537428092255</v>
       </c>
       <c r="D232" t="s">
         <v>14</v>
@@ -6872,10 +6872,10 @@
         <v>45072</v>
       </c>
       <c r="B233">
-        <v>1.606954689146467</v>
+        <v>0.01606954689146467</v>
       </c>
       <c r="C233">
-        <v>0.7741654097079609</v>
+        <v>0.007741654097079609</v>
       </c>
       <c r="D233" t="s">
         <v>14</v>
@@ -6886,10 +6886,10 @@
         <v>45071</v>
       </c>
       <c r="B234">
-        <v>-1.192636764324606</v>
+        <v>-0.01192636764324606</v>
       </c>
       <c r="C234">
-        <v>1.15257352941176</v>
+        <v>0.0115257352941176</v>
       </c>
       <c r="D234" t="s">
         <v>14</v>
@@ -6900,10 +6900,10 @@
         <v>45070</v>
       </c>
       <c r="B235">
-        <v>1.994227236945689</v>
+        <v>0.01994227236945689</v>
       </c>
       <c r="C235">
-        <v>-1.02702653530915</v>
+        <v>-0.0102702653530915</v>
       </c>
       <c r="D235" t="s">
         <v>14</v>
@@ -6914,10 +6914,10 @@
         <v>45069</v>
       </c>
       <c r="B236">
-        <v>1.029071263184989</v>
+        <v>0.01029071263184989</v>
       </c>
       <c r="C236">
-        <v>-0.257682850480434</v>
+        <v>-0.00257682850480434</v>
       </c>
       <c r="D236" t="s">
         <v>14</v>
@@ -6928,10 +6928,10 @@
         <v>45068</v>
       </c>
       <c r="B237">
-        <v>0.3310415075120865</v>
+        <v>0.003310415075120865</v>
       </c>
       <c r="C237">
-        <v>-0.4803828615287387</v>
+        <v>-0.004803828615287387</v>
       </c>
       <c r="D237" t="s">
         <v>14</v>
@@ -6942,10 +6942,10 @@
         <v>45065</v>
       </c>
       <c r="B238">
-        <v>-0.5583756345177604</v>
+        <v>-0.005583756345177604</v>
       </c>
       <c r="C238">
-        <v>0.5785229047843954</v>
+        <v>0.005785229047843954</v>
       </c>
       <c r="D238" t="s">
         <v>14</v>
@@ -6956,10 +6956,10 @@
         <v>45064</v>
       </c>
       <c r="B239">
-        <v>-2.067381316998473</v>
+        <v>-0.02067381316998473</v>
       </c>
       <c r="C239">
-        <v>0.5919970765576377</v>
+        <v>0.005919970765576377</v>
       </c>
       <c r="D239" t="s">
         <v>14</v>
@@ -6970,10 +6970,10 @@
         <v>45063</v>
       </c>
       <c r="B240">
-        <v>0.390930414386248</v>
+        <v>0.00390930414386248</v>
       </c>
       <c r="C240">
-        <v>1.170120339390346</v>
+        <v>0.01170120339390346</v>
       </c>
       <c r="D240" t="s">
         <v>14</v>
@@ -6984,10 +6984,10 @@
         <v>45062</v>
       </c>
       <c r="B241">
-        <v>0.6230529595015355</v>
+        <v>0.006230529595015355</v>
       </c>
       <c r="C241">
-        <v>-0.7658512872721901</v>
+        <v>-0.007658512872721901</v>
       </c>
       <c r="D241" t="s">
         <v>14</v>
@@ -6998,10 +6998,10 @@
         <v>45061</v>
       </c>
       <c r="B242">
-        <v>-0.1547987616098978</v>
+        <v>-0.001547987616098978</v>
       </c>
       <c r="C242">
-        <v>0.5209101637409619</v>
+        <v>0.005209101637409619</v>
       </c>
       <c r="D242" t="s">
         <v>14</v>
@@ -7012,10 +7012,10 @@
         <v>45058</v>
       </c>
       <c r="B243">
-        <v>-1.834625322997419</v>
+        <v>-0.01834625322997419</v>
       </c>
       <c r="C243">
-        <v>0.1921371563700758</v>
+        <v>0.001921371563700758</v>
       </c>
       <c r="D243" t="s">
         <v>14</v>
@@ -7026,10 +7026,10 @@
         <v>45057</v>
       </c>
       <c r="B244">
-        <v>1.052908660173735</v>
+        <v>0.01052908660173735</v>
       </c>
       <c r="C244">
-        <v>0.7519916610825739</v>
+        <v>0.007519916610825739</v>
       </c>
       <c r="D244" t="s">
         <v>14</v>
@@ -7040,10 +7040,10 @@
         <v>45056</v>
       </c>
       <c r="B245">
-        <v>0.07814535035166603</v>
+        <v>0.0007814535035166603</v>
       </c>
       <c r="C245">
-        <v>0.3118173161304805</v>
+        <v>0.003118173161304805</v>
       </c>
       <c r="D245" t="s">
         <v>14</v>
@@ -7054,10 +7054,10 @@
         <v>45055</v>
       </c>
       <c r="B246">
-        <v>1.275377407600198</v>
+        <v>0.01275377407600198</v>
       </c>
       <c r="C246">
-        <v>1.010920201429633</v>
+        <v>0.01010920201429633</v>
       </c>
       <c r="D246" t="s">
         <v>14</v>
@@ -7068,10 +7068,10 @@
         <v>45054</v>
       </c>
       <c r="B247">
-        <v>-1.644821382677963</v>
+        <v>-0.01644821382677963</v>
       </c>
       <c r="C247">
-        <v>0.8502301517860467</v>
+        <v>0.008502301517860467</v>
       </c>
       <c r="D247" t="s">
         <v>14</v>
@@ -7082,10 +7082,10 @@
         <v>45051</v>
       </c>
       <c r="B248">
-        <v>-2.545176889793843</v>
+        <v>-0.02545176889793843</v>
       </c>
       <c r="C248">
-        <v>2.910720927046029</v>
+        <v>0.02910720927046029</v>
       </c>
       <c r="D248" t="s">
         <v>14</v>
@@ -7096,10 +7096,10 @@
         <v>45050</v>
       </c>
       <c r="B249">
-        <v>0.2089318359885128</v>
+        <v>0.002089318359885128</v>
       </c>
       <c r="C249">
-        <v>0.3703449021090988</v>
+        <v>0.003703449021090988</v>
       </c>
       <c r="D249" t="s">
         <v>14</v>
@@ -7110,10 +7110,10 @@
         <v>45049</v>
       </c>
       <c r="B250">
-        <v>1.511597602293469</v>
+        <v>0.01511597602293469</v>
       </c>
       <c r="C250">
-        <v>-0.1275422606375143</v>
+        <v>-0.001275422606375143</v>
       </c>
       <c r="D250" t="s">
         <v>14</v>

--- a/doc/WEGE3cg_1anos.xlsx
+++ b/doc/WEGE3cg_1anos.xlsx
@@ -181,9 +181,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$250</c:f>
+              <c:f>Retornos!$D$2:$D$249</c:f>
               <c:strCache>
-                <c:ptCount val="249"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>04/2024</c:v>
                 </c:pt>
@@ -926,9 +926,6 @@
                   <c:v>05/2023</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>05/2023</c:v>
-                </c:pt>
-                <c:pt idx="248">
                   <c:v>05/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -936,10 +933,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$250</c:f>
+              <c:f>Retornos!$B$2:$B$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="249"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>0.01785252263906867</c:v>
                 </c:pt>
@@ -1683,9 +1680,6 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>0.002089318359885128</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.01511597602293469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,9 +1699,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$250</c:f>
+              <c:f>Retornos!$D$2:$D$249</c:f>
               <c:strCache>
-                <c:ptCount val="249"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>04/2024</c:v>
                 </c:pt>
@@ -2450,9 +2444,6 @@
                   <c:v>05/2023</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>05/2023</c:v>
-                </c:pt>
-                <c:pt idx="248">
                   <c:v>05/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -2460,10 +2451,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$250</c:f>
+              <c:f>Retornos!$C$2:$C$249</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="249"/>
+                <c:ptCount val="248"/>
                 <c:pt idx="0">
                   <c:v>-0.01121301589295809</c:v>
                 </c:pt>
@@ -3207,9 +3198,6 @@
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>0.003703449021090988</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>-0.001275422606375143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,6 +3609,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -7132,6 +7125,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
